--- a/raw_data/20200818_saline/20200818_Sensor1_Test_80.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_80.xlsx
@@ -1,583 +1,999 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFAEB6D4-FDF8-4B8D-A618-1842BF8F2ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>71288.743415</v>
+        <v>71288.743415000004</v>
       </c>
       <c r="B2" s="1">
         <v>19.802429</v>
       </c>
       <c r="C2" s="1">
-        <v>902.193000</v>
+        <v>902.19299999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-194.822000</v>
+        <v>-194.822</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>71299.172296</v>
+        <v>71299.172296000004</v>
       </c>
       <c r="G2" s="1">
-        <v>19.805326</v>
+        <v>19.805326000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>919.393000</v>
+        <v>919.39300000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-164.998000</v>
+        <v>-164.99799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>71310.316905</v>
       </c>
       <c r="L2" s="1">
-        <v>19.808421</v>
+        <v>19.808420999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>942.424000</v>
+        <v>942.42399999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.346000</v>
+        <v>-118.346</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>71320.617355</v>
+        <v>71320.617354999995</v>
       </c>
       <c r="Q2" s="1">
         <v>19.811283</v>
       </c>
       <c r="R2" s="1">
-        <v>949.230000</v>
+        <v>949.23</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.758000</v>
+        <v>-102.758</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>71330.928654</v>
+        <v>71330.928654000003</v>
       </c>
       <c r="V2" s="1">
-        <v>19.814147</v>
+        <v>19.814146999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>956.210000</v>
+        <v>956.21</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.279000</v>
+        <v>-88.278999999999996</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>71340.696865</v>
+        <v>71340.696865000005</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.816860</v>
+        <v>19.816859999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>963.814000</v>
+        <v>963.81399999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.891300</v>
+        <v>-76.891300000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>71350.961077</v>
       </c>
       <c r="AF2" s="1">
-        <v>19.819711</v>
+        <v>19.819711000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>968.864000</v>
+        <v>968.86400000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.878300</v>
+        <v>-74.878299999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>71361.070066</v>
@@ -586,1373 +1002,1373 @@
         <v>19.822519</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.084000</v>
+        <v>976.08399999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.394400</v>
+        <v>-79.394400000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>71371.633832</v>
+        <v>71371.633832000007</v>
       </c>
       <c r="AP2" s="1">
-        <v>19.825454</v>
+        <v>19.825454000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.286000</v>
+        <v>984.28599999999994</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.783200</v>
+        <v>-90.783199999999994</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>71382.644027</v>
+        <v>71382.644027000002</v>
       </c>
       <c r="AU2" s="1">
         <v>19.828512</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.180000</v>
+        <v>994.18</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.219000</v>
+        <v>-108.21899999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>71393.493019</v>
+        <v>71393.493019000001</v>
       </c>
       <c r="AZ2" s="1">
         <v>19.831526</v>
       </c>
       <c r="BA2" s="1">
-        <v>1002.450000</v>
+        <v>1002.45</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.725000</v>
+        <v>-123.72499999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>71404.474476</v>
+        <v>71404.474476000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>19.834576</v>
+        <v>19.834575999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1041.200000</v>
+        <v>1041.2</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.878000</v>
+        <v>-194.87799999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>71415.483646</v>
+        <v>71415.483645999993</v>
       </c>
       <c r="BJ2" s="1">
-        <v>19.837634</v>
+        <v>19.837634000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1108.180000</v>
+        <v>1108.18</v>
       </c>
       <c r="BL2" s="1">
-        <v>-309.757000</v>
+        <v>-309.75700000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>71427.020132</v>
+        <v>71427.020132000005</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.840839</v>
+        <v>19.840838999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1216.680000</v>
+        <v>1216.68</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-489.477000</v>
+        <v>-489.47699999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>71438.069968</v>
+        <v>71438.069967999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>19.843908</v>
+        <v>19.843907999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1337.790000</v>
+        <v>1337.79</v>
       </c>
       <c r="BV2" s="1">
-        <v>-685.503000</v>
+        <v>-685.50300000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>71449.326215</v>
+        <v>71449.326214999994</v>
       </c>
       <c r="BY2" s="1">
-        <v>19.847035</v>
+        <v>19.847035000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1472.840000</v>
+        <v>1472.84</v>
       </c>
       <c r="CA2" s="1">
-        <v>-893.136000</v>
+        <v>-893.13599999999997</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>71460.233699</v>
+        <v>71460.233699000004</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.850065</v>
+        <v>19.850065000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1823.490000</v>
+        <v>1823.49</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1385.060000</v>
+        <v>-1385.06</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>71289.460133</v>
       </c>
       <c r="B3" s="1">
-        <v>19.802628</v>
+        <v>19.802627999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>902.224000</v>
+        <v>902.22400000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-194.651000</v>
+        <v>-194.65100000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>71299.837431</v>
+        <v>71299.837431000007</v>
       </c>
       <c r="G3" s="1">
-        <v>19.805510</v>
+        <v>19.805510000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>919.515000</v>
+        <v>919.51499999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.389000</v>
+        <v>-165.38900000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>71310.724121</v>
+        <v>71310.724121000007</v>
       </c>
       <c r="L3" s="1">
-        <v>19.808534</v>
+        <v>19.808534000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>942.422000</v>
+        <v>942.42200000000003</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.395000</v>
+        <v>-118.395</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>71320.974456</v>
+        <v>71320.974455999996</v>
       </c>
       <c r="Q3" s="1">
-        <v>19.811382</v>
+        <v>19.811381999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>949.288000</v>
+        <v>949.28800000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.666000</v>
+        <v>-102.666</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>71331.272382</v>
+        <v>71331.272381999996</v>
       </c>
       <c r="V3" s="1">
         <v>19.814242</v>
       </c>
       <c r="W3" s="1">
-        <v>956.094000</v>
+        <v>956.09400000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.208400</v>
+        <v>-88.208399999999997</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>71341.085265</v>
+        <v>71341.085265000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>19.816968</v>
+        <v>19.816967999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.782000</v>
+        <v>963.78200000000004</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.902200</v>
+        <v>-76.902199999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>71351.414419</v>
+        <v>71351.414418999993</v>
       </c>
       <c r="AF3" s="1">
         <v>19.819837</v>
       </c>
       <c r="AG3" s="1">
-        <v>968.665000</v>
+        <v>968.66499999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.769700</v>
+        <v>-74.7697</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>71361.487187</v>
+        <v>71361.487187000006</v>
       </c>
       <c r="AK3" s="1">
-        <v>19.822635</v>
+        <v>19.822634999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.083000</v>
+        <v>976.08299999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.410200</v>
+        <v>-79.410200000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>71372.078744</v>
+        <v>71372.078743999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.825577</v>
+        <v>19.825576999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.290000</v>
+        <v>984.29</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.789400</v>
+        <v>-90.789400000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>71382.768025</v>
+        <v>71382.768024999998</v>
       </c>
       <c r="AU3" s="1">
         <v>19.828547</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.191000</v>
+        <v>994.19100000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.208000</v>
+        <v>-108.208</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>71393.884363</v>
+        <v>71393.884363000005</v>
       </c>
       <c r="AZ3" s="1">
-        <v>19.831635</v>
+        <v>19.831634999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1002.460000</v>
+        <v>1002.46</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.717000</v>
+        <v>-123.717</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>71404.836060</v>
+        <v>71404.836060000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>19.834677</v>
+        <v>19.834676999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1041.200000</v>
+        <v>1041.2</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.871000</v>
+        <v>-194.87100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>71415.852174</v>
       </c>
       <c r="BJ3" s="1">
-        <v>19.837737</v>
+        <v>19.837737000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1108.200000</v>
+        <v>1108.2</v>
       </c>
       <c r="BL3" s="1">
-        <v>-309.797000</v>
+        <v>-309.79700000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>71427.446654</v>
+        <v>71427.446653999999</v>
       </c>
       <c r="BO3" s="1">
         <v>19.840957</v>
       </c>
       <c r="BP3" s="1">
-        <v>1216.740000</v>
+        <v>1216.74</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-489.514000</v>
+        <v>-489.51400000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>71438.491104</v>
+        <v>71438.491104000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>19.844025</v>
+        <v>19.844024999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1337.800000</v>
+        <v>1337.8</v>
       </c>
       <c r="BV3" s="1">
-        <v>-685.627000</v>
+        <v>-685.62699999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>71449.766624</v>
+        <v>71449.766623999996</v>
       </c>
       <c r="BY3" s="1">
-        <v>19.847157</v>
+        <v>19.847156999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1472.820000</v>
+        <v>1472.82</v>
       </c>
       <c r="CA3" s="1">
-        <v>-893.285000</v>
+        <v>-893.28499999999997</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>71460.812544</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.850226</v>
+        <v>19.850225999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1822.400000</v>
+        <v>1822.4</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1386.420000</v>
+        <v>-1386.42</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>71289.820228</v>
+        <v>71289.820227999997</v>
       </c>
       <c r="B4" s="1">
-        <v>19.802728</v>
+        <v>19.802727999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>902.143000</v>
+        <v>902.14300000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>-194.772000</v>
+        <v>-194.77199999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>71300.209826</v>
+        <v>71300.209826000006</v>
       </c>
       <c r="G4" s="1">
-        <v>19.805614</v>
+        <v>19.805613999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>919.706000</v>
+        <v>919.70600000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.444000</v>
+        <v>-165.44399999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>71311.068377</v>
+        <v>71311.068377000003</v>
       </c>
       <c r="L4" s="1">
-        <v>19.808630</v>
+        <v>19.808630000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>942.327000</v>
+        <v>942.327</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.452000</v>
+        <v>-118.452</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>71321.324131</v>
+        <v>71321.324131000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>19.811479</v>
+        <v>19.811478999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>949.255000</v>
+        <v>949.255</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.723000</v>
+        <v>-102.723</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>71331.618093</v>
+        <v>71331.618092999997</v>
       </c>
       <c r="V4" s="1">
-        <v>19.814338</v>
+        <v>19.814337999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>956.178000</v>
+        <v>956.178</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.192300</v>
+        <v>-88.192300000000003</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>71341.513280</v>
+        <v>71341.513279999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>19.817087</v>
+        <v>19.817087000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>963.738000</v>
+        <v>963.73800000000006</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.875600</v>
+        <v>-76.875600000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>71351.689203</v>
+        <v>71351.689203000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>19.819914</v>
+        <v>19.819914000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>968.691000</v>
+        <v>968.69100000000003</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.758400</v>
+        <v>-74.758399999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>71361.831398</v>
+        <v>71361.831397999995</v>
       </c>
       <c r="AK4" s="1">
-        <v>19.822731</v>
+        <v>19.822731000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.111000</v>
+        <v>976.11099999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.389800</v>
+        <v>-79.389799999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>71372.436359</v>
+        <v>71372.436358999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.825677</v>
+        <v>19.825676999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.287000</v>
+        <v>984.28700000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.793400</v>
+        <v>-90.793400000000005</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>71383.162346</v>
+        <v>71383.162345999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.828656</v>
+        <v>19.828655999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.184000</v>
+        <v>994.18399999999997</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.218000</v>
+        <v>-108.218</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>71394.262811</v>
+        <v>71394.262810999993</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.831740</v>
+        <v>19.83174</v>
       </c>
       <c r="BA4" s="1">
-        <v>1002.450000</v>
+        <v>1002.45</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.729000</v>
+        <v>-123.729</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>71405.560188</v>
+        <v>71405.560188000003</v>
       </c>
       <c r="BE4" s="1">
         <v>19.834878</v>
       </c>
       <c r="BF4" s="1">
-        <v>1041.180000</v>
+        <v>1041.18</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.872000</v>
+        <v>-194.87200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>71416.628450</v>
+        <v>71416.628450000004</v>
       </c>
       <c r="BJ4" s="1">
-        <v>19.837952</v>
+        <v>19.837952000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1108.190000</v>
+        <v>1108.19</v>
       </c>
       <c r="BL4" s="1">
-        <v>-309.781000</v>
+        <v>-309.78100000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>71427.851428</v>
+        <v>71427.851427999994</v>
       </c>
       <c r="BO4" s="1">
-        <v>19.841070</v>
+        <v>19.841069999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1216.740000</v>
+        <v>1216.74</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-489.505000</v>
+        <v>-489.505</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>71438.910191</v>
+        <v>71438.910191000003</v>
       </c>
       <c r="BT4" s="1">
-        <v>19.844142</v>
+        <v>19.844142000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1337.840000</v>
+        <v>1337.84</v>
       </c>
       <c r="BV4" s="1">
-        <v>-685.678000</v>
+        <v>-685.678</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>71450.504678</v>
+        <v>71450.504677999998</v>
       </c>
       <c r="BY4" s="1">
         <v>19.847362</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1472.860000</v>
+        <v>1472.86</v>
       </c>
       <c r="CA4" s="1">
-        <v>-893.297000</v>
+        <v>-893.29700000000003</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>71461.664657</v>
+        <v>71461.664657000001</v>
       </c>
       <c r="CD4" s="1">
         <v>19.850462</v>
       </c>
       <c r="CE4" s="1">
-        <v>1823.550000</v>
+        <v>1823.55</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1385.430000</v>
+        <v>-1385.43</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>71290.163461</v>
+        <v>71290.163461000004</v>
       </c>
       <c r="B5" s="1">
         <v>19.802823</v>
       </c>
       <c r="C5" s="1">
-        <v>902.259000</v>
+        <v>902.25900000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.786000</v>
+        <v>-194.786</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>71300.551211</v>
+        <v>71300.551210999998</v>
       </c>
       <c r="G5" s="1">
         <v>19.805709</v>
       </c>
       <c r="H5" s="1">
-        <v>919.411000</v>
+        <v>919.41099999999994</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.351000</v>
+        <v>-165.351</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>71311.414551</v>
+        <v>71311.414550999994</v>
       </c>
       <c r="L5" s="1">
         <v>19.808726</v>
       </c>
       <c r="M5" s="1">
-        <v>942.465000</v>
+        <v>942.46500000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.303000</v>
+        <v>-118.303</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>71321.756667</v>
+        <v>71321.756666999994</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.811599</v>
+        <v>19.811599000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>949.343000</v>
+        <v>949.34299999999996</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.743000</v>
+        <v>-102.74299999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>71332.053614</v>
+        <v>71332.053614000004</v>
       </c>
       <c r="V5" s="1">
-        <v>19.814459</v>
+        <v>19.814458999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>956.215000</v>
+        <v>956.21500000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.175700</v>
+        <v>-88.175700000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>71341.802448</v>
+        <v>71341.802448000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>19.817167</v>
+        <v>19.817167000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>963.737000</v>
+        <v>963.73699999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.865200</v>
+        <v>-76.865200000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>71352.029987</v>
+        <v>71352.029987000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>19.820008</v>
+        <v>19.820008000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>968.669000</v>
+        <v>968.66899999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.827000</v>
+        <v>-74.826999999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>71362.180098</v>
+        <v>71362.180097999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>19.822828</v>
+        <v>19.822828000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.116000</v>
+        <v>976.11599999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.389700</v>
+        <v>-79.389700000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>71372.794967</v>
+        <v>71372.794966999994</v>
       </c>
       <c r="AP5" s="1">
-        <v>19.825776</v>
+        <v>19.825776000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.294000</v>
+        <v>984.29399999999998</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.794100</v>
+        <v>-90.7941</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>71383.857773</v>
+        <v>71383.857772999996</v>
       </c>
       <c r="AU5" s="1">
-        <v>19.828849</v>
+        <v>19.828849000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.178000</v>
+        <v>994.178</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.200000</v>
+        <v>-108.2</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>71395.002346</v>
+        <v>71395.002345999994</v>
       </c>
       <c r="AZ5" s="1">
-        <v>19.831945</v>
+        <v>19.831945000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1002.450000</v>
+        <v>1002.45</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.707000</v>
+        <v>-123.70699999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>71405.951035</v>
+        <v>71405.951035000006</v>
       </c>
       <c r="BE5" s="1">
-        <v>19.834986</v>
+        <v>19.834986000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1041.190000</v>
+        <v>1041.19</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.876000</v>
+        <v>-194.876</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>71417.003884</v>
+        <v>71417.003884000005</v>
       </c>
       <c r="BJ5" s="1">
-        <v>19.838057</v>
+        <v>19.838056999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1108.190000</v>
+        <v>1108.19</v>
       </c>
       <c r="BL5" s="1">
-        <v>-309.803000</v>
+        <v>-309.803</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>71428.241245</v>
+        <v>71428.241244999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>19.841178</v>
+        <v>19.841177999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1216.700000</v>
+        <v>1216.7</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-489.504000</v>
+        <v>-489.50400000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>71439.641791</v>
+        <v>71439.641791000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.844345</v>
+        <v>19.844345000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1337.910000</v>
+        <v>1337.91</v>
       </c>
       <c r="BV5" s="1">
-        <v>-685.693000</v>
+        <v>-685.69299999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>71450.663229</v>
+        <v>71450.663228999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.847406</v>
+        <v>19.847405999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1472.700000</v>
+        <v>1472.7</v>
       </c>
       <c r="CA5" s="1">
-        <v>-893.350000</v>
+        <v>-893.35</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>71461.896785</v>
+        <v>71461.896785000004</v>
       </c>
       <c r="CD5" s="1">
         <v>19.850527</v>
       </c>
       <c r="CE5" s="1">
-        <v>1821.970000</v>
+        <v>1821.97</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1384.670000</v>
+        <v>-1384.67</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>71290.505203</v>
+        <v>71290.505202999993</v>
       </c>
       <c r="B6" s="1">
-        <v>19.802918</v>
+        <v>19.802917999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>902.120000</v>
+        <v>902.12</v>
       </c>
       <c r="D6" s="1">
-        <v>-194.793000</v>
+        <v>-194.79300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>71300.984678</v>
+        <v>71300.984677999993</v>
       </c>
       <c r="G6" s="1">
-        <v>19.805829</v>
+        <v>19.805828999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>919.459000</v>
+        <v>919.45899999999995</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.606000</v>
+        <v>-165.60599999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>71311.850040</v>
+        <v>71311.850040000005</v>
       </c>
       <c r="L6" s="1">
         <v>19.808847</v>
       </c>
       <c r="M6" s="1">
-        <v>942.488000</v>
+        <v>942.48800000000006</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.323000</v>
+        <v>-118.32299999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>71322.027452</v>
+        <v>71322.027451999995</v>
       </c>
       <c r="Q6" s="1">
         <v>19.811674</v>
       </c>
       <c r="R6" s="1">
-        <v>949.300000</v>
+        <v>949.3</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.764000</v>
+        <v>-102.764</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>71332.319964</v>
+        <v>71332.319963999995</v>
       </c>
       <c r="V6" s="1">
-        <v>19.814533</v>
+        <v>19.814533000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>956.139000</v>
+        <v>956.13900000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.148600</v>
+        <v>-88.148600000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>71342.151135</v>
+        <v>71342.151134999993</v>
       </c>
       <c r="AA6" s="1">
-        <v>19.817264</v>
+        <v>19.817264000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>963.771000</v>
+        <v>963.77099999999996</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.947300</v>
+        <v>-76.947299999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>71352.376675</v>
+        <v>71352.376675000007</v>
       </c>
       <c r="AF6" s="1">
-        <v>19.820105</v>
+        <v>19.820105000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>968.667000</v>
+        <v>968.66700000000003</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.770800</v>
+        <v>-74.770799999999994</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>71362.528772</v>
+        <v>71362.528772000005</v>
       </c>
       <c r="AK6" s="1">
-        <v>19.822925</v>
+        <v>19.822925000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.109000</v>
+        <v>976.10900000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.393500</v>
+        <v>-79.393500000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>71373.520614</v>
+        <v>71373.520613999994</v>
       </c>
       <c r="AP6" s="1">
-        <v>19.825978</v>
+        <v>19.825977999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.290000</v>
+        <v>984.29</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.783900</v>
+        <v>-90.783900000000003</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>71384.319157</v>
+        <v>71384.319157000005</v>
       </c>
       <c r="AU6" s="1">
-        <v>19.828978</v>
+        <v>19.828977999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.173000</v>
+        <v>994.173</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.209000</v>
+        <v>-108.209</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>71395.359994</v>
+        <v>71395.359993999999</v>
       </c>
       <c r="AZ6" s="1">
         <v>19.832044</v>
       </c>
       <c r="BA6" s="1">
-        <v>1002.450000</v>
+        <v>1002.45</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.717000</v>
+        <v>-123.717</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>71406.310138</v>
+        <v>71406.310138000001</v>
       </c>
       <c r="BE6" s="1">
         <v>19.835086</v>
       </c>
       <c r="BF6" s="1">
-        <v>1041.210000</v>
+        <v>1041.21</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.898000</v>
+        <v>-194.898</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>71417.702782</v>
+        <v>71417.702781999993</v>
       </c>
       <c r="BJ6" s="1">
         <v>19.838251</v>
       </c>
       <c r="BK6" s="1">
-        <v>1108.190000</v>
+        <v>1108.19</v>
       </c>
       <c r="BL6" s="1">
-        <v>-309.793000</v>
+        <v>-309.79300000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>71428.975820</v>
+        <v>71428.975820000007</v>
       </c>
       <c r="BO6" s="1">
-        <v>19.841382</v>
+        <v>19.841381999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1216.730000</v>
+        <v>1216.73</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-489.505000</v>
+        <v>-489.505</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>71439.755375</v>
+        <v>71439.755374999993</v>
       </c>
       <c r="BT6" s="1">
         <v>19.844376</v>
       </c>
       <c r="BU6" s="1">
-        <v>1337.970000</v>
+        <v>1337.97</v>
       </c>
       <c r="BV6" s="1">
-        <v>-685.724000</v>
+        <v>-685.72400000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>71451.090447</v>
+        <v>71451.090446999995</v>
       </c>
       <c r="BY6" s="1">
-        <v>19.847525</v>
+        <v>19.847525000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1472.740000</v>
+        <v>1472.74</v>
       </c>
       <c r="CA6" s="1">
-        <v>-893.371000</v>
+        <v>-893.37099999999998</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>71462.430976</v>
+        <v>71462.430976000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>19.850675</v>
+        <v>19.850674999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1822.490000</v>
+        <v>1822.49</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1386.320000</v>
+        <v>-1386.32</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>71290.945155</v>
+        <v>71290.945154999994</v>
       </c>
       <c r="B7" s="1">
-        <v>19.803040</v>
+        <v>19.803039999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>902.338000</v>
+        <v>902.33799999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.661000</v>
+        <v>-194.661</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>71301.613606</v>
+        <v>71301.613605999999</v>
       </c>
       <c r="G7" s="1">
-        <v>19.806004</v>
+        <v>19.806004000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>919.280000</v>
+        <v>919.28</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.121000</v>
+        <v>-165.12100000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>71312.129319</v>
       </c>
       <c r="L7" s="1">
-        <v>19.808925</v>
+        <v>19.808924999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>942.305000</v>
+        <v>942.30499999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.432000</v>
+        <v>-118.432</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>71322.376633</v>
+        <v>71322.376633000007</v>
       </c>
       <c r="Q7" s="1">
         <v>19.811771</v>
       </c>
       <c r="R7" s="1">
-        <v>949.253000</v>
+        <v>949.25300000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.764000</v>
+        <v>-102.764</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>71332.661677</v>
+        <v>71332.661676999996</v>
       </c>
       <c r="V7" s="1">
-        <v>19.814628</v>
+        <v>19.814627999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>956.232000</v>
+        <v>956.23199999999997</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.143900</v>
+        <v>-88.143900000000002</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>71342.497840</v>
+        <v>71342.497839999996</v>
       </c>
       <c r="AA7" s="1">
-        <v>19.817361</v>
+        <v>19.817360999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>963.786000</v>
+        <v>963.78599999999994</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.892700</v>
+        <v>-76.892700000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>71353.063120</v>
+        <v>71353.063120000006</v>
       </c>
       <c r="AF7" s="1">
-        <v>19.820295</v>
+        <v>19.820295000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>968.697000</v>
+        <v>968.697</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.760900</v>
+        <v>-74.760900000000007</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>71363.225163</v>
+        <v>71363.225162999996</v>
       </c>
       <c r="AK7" s="1">
-        <v>19.823118</v>
+        <v>19.823118000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.101000</v>
+        <v>976.101</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.403100</v>
+        <v>-79.403099999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>71373.899559</v>
+        <v>71373.899558999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>19.826083</v>
+        <v>19.826083000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.302000</v>
+        <v>984.30200000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.802300</v>
+        <v>-90.802300000000002</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>71384.678648</v>
+        <v>71384.678648000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>19.829077</v>
+        <v>19.829077000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.185000</v>
+        <v>994.18499999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.214000</v>
+        <v>-108.214</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>71395.719064</v>
+        <v>71395.719064000004</v>
       </c>
       <c r="AZ7" s="1">
         <v>19.832144</v>
       </c>
       <c r="BA7" s="1">
-        <v>1002.460000</v>
+        <v>1002.46</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.716000</v>
+        <v>-123.71599999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>71406.990186</v>
+        <v>71406.990185999995</v>
       </c>
       <c r="BE7" s="1">
-        <v>19.835275</v>
+        <v>19.835274999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1041.210000</v>
+        <v>1041.21</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.900000</v>
+        <v>-194.9</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>71418.159563</v>
+        <v>71418.159562999994</v>
       </c>
       <c r="BJ7" s="1">
-        <v>19.838378</v>
+        <v>19.838377999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1108.180000</v>
+        <v>1108.18</v>
       </c>
       <c r="BL7" s="1">
-        <v>-309.788000</v>
+        <v>-309.78800000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>71429.090396</v>
@@ -1961,105 +2377,105 @@
         <v>19.841414</v>
       </c>
       <c r="BP7" s="1">
-        <v>1216.720000</v>
+        <v>1216.72</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-489.509000</v>
+        <v>-489.50900000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>71440.168047</v>
+        <v>71440.168046999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>19.844491</v>
+        <v>19.844491000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1338.000000</v>
+        <v>1338</v>
       </c>
       <c r="BV7" s="1">
-        <v>-685.769000</v>
+        <v>-685.76900000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>71451.508116</v>
+        <v>71451.508115999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.847641</v>
+        <v>19.847640999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1472.920000</v>
+        <v>1472.92</v>
       </c>
       <c r="CA7" s="1">
-        <v>-893.352000</v>
+        <v>-893.35199999999998</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>71462.970623</v>
+        <v>71462.970623000001</v>
       </c>
       <c r="CD7" s="1">
         <v>19.850825</v>
       </c>
       <c r="CE7" s="1">
-        <v>1822.980000</v>
+        <v>1822.98</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1384.830000</v>
+        <v>-1384.83</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>71291.222420</v>
+        <v>71291.222420000006</v>
       </c>
       <c r="B8" s="1">
         <v>19.803117</v>
       </c>
       <c r="C8" s="1">
-        <v>902.328000</v>
+        <v>902.32799999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>-194.779000</v>
+        <v>-194.779</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>71301.964276</v>
+        <v>71301.964275999999</v>
       </c>
       <c r="G8" s="1">
-        <v>19.806101</v>
+        <v>19.806101000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>919.520000</v>
+        <v>919.52</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.310000</v>
+        <v>-165.31</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>71312.477976</v>
+        <v>71312.477975999995</v>
       </c>
       <c r="L8" s="1">
-        <v>19.809022</v>
+        <v>19.809021999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>942.455000</v>
+        <v>942.45500000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.313000</v>
+        <v>-118.313</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>71322.724833</v>
@@ -2068,3414 +2484,3414 @@
         <v>19.811868</v>
       </c>
       <c r="R8" s="1">
-        <v>949.246000</v>
+        <v>949.24599999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.798000</v>
+        <v>-102.798</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>71333.006396</v>
+        <v>71333.006395999997</v>
       </c>
       <c r="V8" s="1">
-        <v>19.814724</v>
+        <v>19.814723999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>956.094000</v>
+        <v>956.09400000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.239000</v>
+        <v>-88.239000000000004</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>71343.195214</v>
+        <v>71343.195214000007</v>
       </c>
       <c r="AA8" s="1">
-        <v>19.817554</v>
+        <v>19.817554000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>963.710000</v>
+        <v>963.71</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.953800</v>
+        <v>-76.953800000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>71353.407377</v>
+        <v>71353.407376999996</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.820391</v>
+        <v>19.820391000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>968.585000</v>
+        <v>968.58500000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.796100</v>
+        <v>-74.796099999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>71363.575864</v>
+        <v>71363.575863999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>19.823216</v>
+        <v>19.823215999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.118000</v>
+        <v>976.11800000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.377900</v>
+        <v>-79.377899999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>71374.258197</v>
+        <v>71374.258197000003</v>
       </c>
       <c r="AP8" s="1">
         <v>19.826183</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.301000</v>
+        <v>984.30100000000004</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.801600</v>
+        <v>-90.801599999999993</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>71385.359622</v>
+        <v>71385.359622000004</v>
       </c>
       <c r="AU8" s="1">
-        <v>19.829267</v>
+        <v>19.829267000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.183000</v>
+        <v>994.18299999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.224000</v>
+        <v>-108.224</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>71396.393625</v>
+        <v>71396.393624999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.832332</v>
+        <v>19.832332000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1002.450000</v>
+        <v>1002.45</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.727000</v>
+        <v>-123.727</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>71407.421214</v>
+        <v>71407.421214000002</v>
       </c>
       <c r="BE8" s="1">
-        <v>19.835395</v>
+        <v>19.835394999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1041.210000</v>
+        <v>1041.21</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.877000</v>
+        <v>-194.87700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>71418.552425</v>
+        <v>71418.552425000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>19.838487</v>
+        <v>19.838487000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1108.210000</v>
+        <v>1108.21</v>
       </c>
       <c r="BL8" s="1">
-        <v>-309.800000</v>
+        <v>-309.8</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>71429.485708</v>
+        <v>71429.485707999993</v>
       </c>
       <c r="BO8" s="1">
         <v>19.841524</v>
       </c>
       <c r="BP8" s="1">
-        <v>1216.740000</v>
+        <v>1216.74</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-489.534000</v>
+        <v>-489.53399999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>71440.598078</v>
+        <v>71440.598077999995</v>
       </c>
       <c r="BT8" s="1">
         <v>19.844611</v>
       </c>
       <c r="BU8" s="1">
-        <v>1338.010000</v>
+        <v>1338.01</v>
       </c>
       <c r="BV8" s="1">
-        <v>-685.680000</v>
+        <v>-685.68</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>71451.955966</v>
+        <v>71451.955965999994</v>
       </c>
       <c r="BY8" s="1">
         <v>19.847766</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1472.750000</v>
+        <v>1472.75</v>
       </c>
       <c r="CA8" s="1">
-        <v>-893.342000</v>
+        <v>-893.34199999999998</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>71463.509279</v>
+        <v>71463.509279000005</v>
       </c>
       <c r="CD8" s="1">
-        <v>19.850975</v>
+        <v>19.850974999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>1821.910000</v>
+        <v>1821.91</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1385.620000</v>
+        <v>-1385.62</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>71291.564193</v>
+        <v>71291.564192999998</v>
       </c>
       <c r="B9" s="1">
-        <v>19.803212</v>
+        <v>19.803211999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>902.123000</v>
+        <v>902.12300000000005</v>
       </c>
       <c r="D9" s="1">
-        <v>-194.887000</v>
+        <v>-194.887</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>71302.305028</v>
+        <v>71302.305028000002</v>
       </c>
       <c r="G9" s="1">
         <v>19.806196</v>
       </c>
       <c r="H9" s="1">
-        <v>918.548000</v>
+        <v>918.548</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.533000</v>
+        <v>-165.53299999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>71312.821206</v>
+        <v>71312.821205999993</v>
       </c>
       <c r="L9" s="1">
-        <v>19.809117</v>
+        <v>19.809117000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>942.378000</v>
+        <v>942.37800000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.266000</v>
+        <v>-118.26600000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>71323.423688</v>
+        <v>71323.423687999995</v>
       </c>
       <c r="Q9" s="1">
-        <v>19.812062</v>
+        <v>19.812062000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>949.253000</v>
+        <v>949.25300000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.745000</v>
+        <v>-102.745</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>71333.694348</v>
+        <v>71333.694348000005</v>
       </c>
       <c r="V9" s="1">
-        <v>19.814915</v>
+        <v>19.814914999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>956.140000</v>
+        <v>956.14</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.210900</v>
+        <v>-88.210899999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>71343.543406</v>
+        <v>71343.543405999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>19.817651</v>
+        <v>19.817651000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>963.761000</v>
+        <v>963.76099999999997</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.872000</v>
+        <v>-76.872</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>71353.755148</v>
+        <v>71353.755147999997</v>
       </c>
       <c r="AF9" s="1">
-        <v>19.820488</v>
+        <v>19.820488000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>968.684000</v>
+        <v>968.68399999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.829000</v>
+        <v>-74.828999999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>71363.922532</v>
+        <v>71363.922531999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>19.823312</v>
+        <v>19.823312000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.100000</v>
+        <v>976.1</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.394800</v>
+        <v>-79.394800000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>71374.940201</v>
+        <v>71374.940201000005</v>
       </c>
       <c r="AP9" s="1">
-        <v>19.826372</v>
+        <v>19.826371999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.303000</v>
+        <v>984.303</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.773700</v>
+        <v>-90.773700000000005</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>71385.470769</v>
+        <v>71385.470769000007</v>
       </c>
       <c r="AU9" s="1">
         <v>19.829297</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.183000</v>
+        <v>994.18299999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.212000</v>
+        <v>-108.212</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>71396.794391</v>
+        <v>71396.794391000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>19.832443</v>
+        <v>19.832443000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1002.460000</v>
+        <v>1002.46</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.715000</v>
+        <v>-123.715</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>71407.782297</v>
+        <v>71407.782296999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>19.835495</v>
+        <v>19.835495000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1041.190000</v>
+        <v>1041.19</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.875000</v>
+        <v>-194.875</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>71418.925882</v>
+        <v>71418.925881999996</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.838591</v>
+        <v>19.838591000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1108.220000</v>
+        <v>1108.22</v>
       </c>
       <c r="BL9" s="1">
-        <v>-309.782000</v>
+        <v>-309.78199999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>71429.906317</v>
+        <v>71429.906317000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>19.841641</v>
+        <v>19.841640999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1216.750000</v>
+        <v>1216.75</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-489.491000</v>
+        <v>-489.49099999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>71441.032605</v>
       </c>
       <c r="BT9" s="1">
-        <v>19.844731</v>
+        <v>19.844730999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1338.120000</v>
+        <v>1338.12</v>
       </c>
       <c r="BV9" s="1">
-        <v>-685.741000</v>
+        <v>-685.74099999999999</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>71452.373598</v>
+        <v>71452.373598000006</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.847882</v>
+        <v>19.847881999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1472.800000</v>
+        <v>1472.8</v>
       </c>
       <c r="CA9" s="1">
-        <v>-893.427000</v>
+        <v>-893.42700000000002</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>71464.050911</v>
+        <v>71464.050910999998</v>
       </c>
       <c r="CD9" s="1">
         <v>19.851125</v>
       </c>
       <c r="CE9" s="1">
-        <v>1823.160000</v>
+        <v>1823.16</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1385.800000</v>
+        <v>-1385.8</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>71291.905907</v>
+        <v>71291.905906999993</v>
       </c>
       <c r="B10" s="1">
         <v>19.803307</v>
       </c>
       <c r="C10" s="1">
-        <v>902.180000</v>
+        <v>902.18</v>
       </c>
       <c r="D10" s="1">
-        <v>-194.714000</v>
+        <v>-194.714</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>71302.993972</v>
+        <v>71302.993971999997</v>
       </c>
       <c r="G10" s="1">
-        <v>19.806387</v>
+        <v>19.806387000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>919.502000</v>
+        <v>919.50199999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.389000</v>
+        <v>-165.38900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>71313.516134</v>
+        <v>71313.516134000005</v>
       </c>
       <c r="L10" s="1">
-        <v>19.809310</v>
+        <v>19.80931</v>
       </c>
       <c r="M10" s="1">
-        <v>942.402000</v>
+        <v>942.40200000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.333000</v>
+        <v>-118.333</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>71323.772376</v>
+        <v>71323.772375999994</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.812159</v>
+        <v>19.812159000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>949.266000</v>
+        <v>949.26599999999996</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.741000</v>
+        <v>-102.741</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>71334.034603</v>
+        <v>71334.034602999993</v>
       </c>
       <c r="V10" s="1">
-        <v>19.815010</v>
+        <v>19.815010000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>956.043000</v>
+        <v>956.04300000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.175700</v>
+        <v>-88.175700000000006</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>71343.894573</v>
+        <v>71343.894572999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>19.817748</v>
+        <v>19.817748000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.677000</v>
+        <v>963.67700000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.855500</v>
+        <v>-76.855500000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>71354.413270</v>
+        <v>71354.413270000005</v>
       </c>
       <c r="AF10" s="1">
-        <v>19.820670</v>
+        <v>19.82067</v>
       </c>
       <c r="AG10" s="1">
-        <v>968.664000</v>
+        <v>968.66399999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.772900</v>
+        <v>-74.772900000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>71364.592129</v>
+        <v>71364.592128999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>19.823498</v>
+        <v>19.823498000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.089000</v>
+        <v>976.08900000000006</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.375800</v>
+        <v>-79.375799999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>71375.339443</v>
+        <v>71375.339443000004</v>
       </c>
       <c r="AP10" s="1">
         <v>19.826483</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.286000</v>
+        <v>984.28599999999994</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.789400</v>
+        <v>-90.789400000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>71385.842229</v>
+        <v>71385.842229000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>19.829401</v>
+        <v>19.829401000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.166000</v>
+        <v>994.16600000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.206000</v>
+        <v>-108.206</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>71397.178822</v>
+        <v>71397.178822000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>19.832550</v>
+        <v>19.832550000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1002.440000</v>
+        <v>1002.44</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.693000</v>
+        <v>-123.693</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>71408.143352</v>
+        <v>71408.143351999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.835595</v>
+        <v>19.835595000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1041.180000</v>
+        <v>1041.18</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.888000</v>
+        <v>-194.88800000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>71419.357401</v>
+        <v>71419.357401000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>19.838710</v>
+        <v>19.838709999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1108.220000</v>
+        <v>1108.22</v>
       </c>
       <c r="BL10" s="1">
-        <v>-309.788000</v>
+        <v>-309.78800000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>71430.348308</v>
+        <v>71430.348308000001</v>
       </c>
       <c r="BO10" s="1">
         <v>19.841763</v>
       </c>
       <c r="BP10" s="1">
-        <v>1216.760000</v>
+        <v>1216.76</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-489.495000</v>
+        <v>-489.495</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>71441.428878</v>
+        <v>71441.428878000006</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.844841</v>
+        <v>19.844840999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1338.140000</v>
+        <v>1338.14</v>
       </c>
       <c r="BV10" s="1">
-        <v>-685.671000</v>
+        <v>-685.67100000000005</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>71452.799165</v>
+        <v>71452.799165000004</v>
       </c>
       <c r="BY10" s="1">
-        <v>19.848000</v>
+        <v>19.847999999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1472.860000</v>
+        <v>1472.86</v>
       </c>
       <c r="CA10" s="1">
-        <v>-893.428000</v>
+        <v>-893.428</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>71464.597998</v>
+        <v>71464.597997999997</v>
       </c>
       <c r="CD10" s="1">
         <v>19.851277</v>
       </c>
       <c r="CE10" s="1">
-        <v>1821.890000</v>
+        <v>1821.89</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1384.880000</v>
+        <v>-1384.88</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>71292.586914</v>
       </c>
       <c r="B11" s="1">
-        <v>19.803496</v>
+        <v>19.803495999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>902.097000</v>
+        <v>902.09699999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>-194.814000</v>
+        <v>-194.81399999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>71303.340709</v>
+        <v>71303.340708999996</v>
       </c>
       <c r="G11" s="1">
-        <v>19.806484</v>
+        <v>19.806484000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>919.349000</v>
+        <v>919.34900000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.551000</v>
+        <v>-165.55099999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>71313.863311</v>
+        <v>71313.863310999994</v>
       </c>
       <c r="L11" s="1">
-        <v>19.809406</v>
+        <v>19.809405999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>942.370000</v>
+        <v>942.37</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.360000</v>
+        <v>-118.36</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>71324.118087</v>
+        <v>71324.118086999995</v>
       </c>
       <c r="Q11" s="1">
         <v>19.812255</v>
       </c>
       <c r="R11" s="1">
-        <v>949.287000</v>
+        <v>949.28700000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.743000</v>
+        <v>-102.74299999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>71334.381305</v>
+        <v>71334.381305000003</v>
       </c>
       <c r="V11" s="1">
         <v>19.815106</v>
       </c>
       <c r="W11" s="1">
-        <v>956.224000</v>
+        <v>956.22400000000005</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.242500</v>
+        <v>-88.242500000000007</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>71344.551772</v>
+        <v>71344.551772000006</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.817931</v>
+        <v>19.817931000000002</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.733000</v>
+        <v>963.73299999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.874200</v>
+        <v>-76.874200000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>71354.783246</v>
+        <v>71354.783246000006</v>
       </c>
       <c r="AF11" s="1">
-        <v>19.820773</v>
+        <v>19.820772999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>968.694000</v>
+        <v>968.69399999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.781400</v>
+        <v>-74.781400000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>71364.970749</v>
       </c>
       <c r="AK11" s="1">
-        <v>19.823603</v>
+        <v>19.823602999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.117000</v>
+        <v>976.11699999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.401400</v>
+        <v>-79.401399999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>71375.723848</v>
+        <v>71375.723847999994</v>
       </c>
       <c r="AP11" s="1">
-        <v>19.826590</v>
+        <v>19.826589999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.295000</v>
+        <v>984.29499999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.813500</v>
+        <v>-90.813500000000005</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>71386.256389</v>
+        <v>71386.256389000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>19.829516</v>
+        <v>19.829516000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.197000</v>
+        <v>994.197</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.228000</v>
+        <v>-108.22799999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>71397.536438</v>
+        <v>71397.536437999996</v>
       </c>
       <c r="AZ11" s="1">
         <v>19.832649</v>
       </c>
       <c r="BA11" s="1">
-        <v>1002.450000</v>
+        <v>1002.45</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.730000</v>
+        <v>-123.73</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>71408.574375</v>
+        <v>71408.574374999997</v>
       </c>
       <c r="BE11" s="1">
         <v>19.835715</v>
       </c>
       <c r="BF11" s="1">
-        <v>1041.220000</v>
+        <v>1041.22</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.881000</v>
+        <v>-194.881</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>71419.676825</v>
+        <v>71419.676825000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>19.838799</v>
+        <v>19.838799000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1108.210000</v>
+        <v>1108.21</v>
       </c>
       <c r="BL11" s="1">
-        <v>-309.802000</v>
+        <v>-309.80200000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>71430.722730</v>
+        <v>71430.722729999994</v>
       </c>
       <c r="BO11" s="1">
-        <v>19.841867</v>
+        <v>19.841867000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-489.498000</v>
+        <v>-489.49799999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>71441.842576</v>
+        <v>71441.842575999995</v>
       </c>
       <c r="BT11" s="1">
         <v>19.844956</v>
       </c>
       <c r="BU11" s="1">
-        <v>1338.220000</v>
+        <v>1338.22</v>
       </c>
       <c r="BV11" s="1">
-        <v>-685.708000</v>
+        <v>-685.70799999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>71453.248076</v>
+        <v>71453.248076000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>19.848124</v>
+        <v>19.848123999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1472.760000</v>
+        <v>1472.76</v>
       </c>
       <c r="CA11" s="1">
-        <v>-893.232000</v>
+        <v>-893.23199999999997</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>71465.131233</v>
+        <v>71465.131232999993</v>
       </c>
       <c r="CD11" s="1">
-        <v>19.851425</v>
+        <v>19.851424999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1822.870000</v>
+        <v>1822.87</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1386.340000</v>
+        <v>-1386.34</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>71292.928161</v>
+        <v>71292.928161000003</v>
       </c>
       <c r="B12" s="1">
-        <v>19.803591</v>
+        <v>19.803591000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>902.204000</v>
+        <v>902.20399999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-194.686000</v>
+        <v>-194.68600000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>71303.685393</v>
+        <v>71303.685393000007</v>
       </c>
       <c r="G12" s="1">
-        <v>19.806579</v>
+        <v>19.806578999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>919.635000</v>
+        <v>919.63499999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.653000</v>
+        <v>-165.65299999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>71314.207524</v>
+        <v>71314.207523999998</v>
       </c>
       <c r="L12" s="1">
-        <v>19.809502</v>
+        <v>19.809501999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>942.411000</v>
+        <v>942.41099999999994</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.297000</v>
+        <v>-118.297</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>71324.787190</v>
+        <v>71324.787190000003</v>
       </c>
       <c r="Q12" s="1">
         <v>19.812441</v>
       </c>
       <c r="R12" s="1">
-        <v>949.287000</v>
+        <v>949.28700000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.779000</v>
+        <v>-102.779</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>71334.833161</v>
+        <v>71334.833161000002</v>
       </c>
       <c r="V12" s="1">
-        <v>19.815231</v>
+        <v>19.815231000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>956.166000</v>
+        <v>956.16600000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.174900</v>
+        <v>-88.174899999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>71344.939147</v>
+        <v>71344.939146999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>19.818039</v>
+        <v>19.818038999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>963.728000</v>
+        <v>963.72799999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.920800</v>
+        <v>-76.9208</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>71355.129454</v>
+        <v>71355.129453999994</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.820869</v>
+        <v>19.820868999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>968.681000</v>
+        <v>968.68100000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.825000</v>
+        <v>-74.825000000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>71365.316321</v>
+        <v>71365.316321000006</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.823699</v>
+        <v>19.823699000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.110000</v>
+        <v>976.11</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.377400</v>
+        <v>-79.377399999999994</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>71376.084434</v>
+        <v>71376.084434000004</v>
       </c>
       <c r="AP12" s="1">
-        <v>19.826690</v>
+        <v>19.826689999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.307000</v>
+        <v>984.30700000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.803600</v>
+        <v>-90.803600000000003</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>71386.683940</v>
+        <v>71386.683940000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.829634</v>
+        <v>19.829633999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.189000</v>
+        <v>994.18899999999996</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.239000</v>
+        <v>-108.239</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>71397.968949</v>
+        <v>71397.968949000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>19.832769</v>
+        <v>19.832768999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1002.460000</v>
+        <v>1002.46</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.726000</v>
+        <v>-123.726</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>71408.867015</v>
+        <v>71408.867014999996</v>
       </c>
       <c r="BE12" s="1">
-        <v>19.835796</v>
+        <v>19.835795999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1041.190000</v>
+        <v>1041.19</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.870000</v>
+        <v>-194.87</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>71420.059736</v>
+        <v>71420.059735999996</v>
       </c>
       <c r="BJ12" s="1">
         <v>19.838905</v>
       </c>
       <c r="BK12" s="1">
-        <v>1108.200000</v>
+        <v>1108.2</v>
       </c>
       <c r="BL12" s="1">
-        <v>-309.797000</v>
+        <v>-309.79700000000003</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>71431.122011</v>
+        <v>71431.122010999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>19.841978</v>
+        <v>19.841978000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1216.750000</v>
+        <v>1216.75</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-489.471000</v>
+        <v>-489.471</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>71442.281004</v>
+        <v>71442.281004000004</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.845078</v>
+        <v>19.845078000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1338.250000</v>
+        <v>1338.25</v>
       </c>
       <c r="BV12" s="1">
-        <v>-685.696000</v>
+        <v>-685.69600000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>71453.678075</v>
+        <v>71453.678075000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>19.848244</v>
+        <v>19.848244000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1472.700000</v>
+        <v>1472.7</v>
       </c>
       <c r="CA12" s="1">
-        <v>-893.409000</v>
+        <v>-893.40899999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>71465.673820</v>
+        <v>71465.673819999996</v>
       </c>
       <c r="CD12" s="1">
-        <v>19.851576</v>
+        <v>19.851576000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1822.690000</v>
+        <v>1822.69</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1384.630000</v>
+        <v>-1384.63</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>71293.271392</v>
+        <v>71293.271391999995</v>
       </c>
       <c r="B13" s="1">
-        <v>19.803686</v>
+        <v>19.803685999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>902.221000</v>
+        <v>902.221</v>
       </c>
       <c r="D13" s="1">
-        <v>-194.764000</v>
+        <v>-194.76400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>71304.350070</v>
+        <v>71304.35007</v>
       </c>
       <c r="G13" s="1">
-        <v>19.806764</v>
+        <v>19.806764000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>919.379000</v>
+        <v>919.37900000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>-164.750000</v>
+        <v>-164.75</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>71314.866708</v>
+        <v>71314.866708000001</v>
       </c>
       <c r="L13" s="1">
-        <v>19.809685</v>
+        <v>19.809685000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>942.386000</v>
+        <v>942.38599999999997</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.250000</v>
+        <v>-118.25</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>71325.167126</v>
       </c>
       <c r="Q13" s="1">
-        <v>19.812546</v>
+        <v>19.812546000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>949.235000</v>
+        <v>949.23500000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.813000</v>
+        <v>-102.813</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>71335.097560</v>
+        <v>71335.097559999995</v>
       </c>
       <c r="V13" s="1">
-        <v>19.815305</v>
+        <v>19.815304999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>956.119000</v>
+        <v>956.11900000000003</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.245600</v>
+        <v>-88.245599999999996</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>71345.289190</v>
+        <v>71345.289189999996</v>
       </c>
       <c r="AA13" s="1">
-        <v>19.818136</v>
+        <v>19.818135999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.803000</v>
+        <v>963.803</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.878100</v>
+        <v>-76.878100000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>71355.472195</v>
+        <v>71355.472194999995</v>
       </c>
       <c r="AF13" s="1">
         <v>19.820964</v>
       </c>
       <c r="AG13" s="1">
-        <v>968.676000</v>
+        <v>968.67600000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.777300</v>
+        <v>-74.777299999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>71365.664976</v>
       </c>
       <c r="AK13" s="1">
-        <v>19.823796</v>
+        <v>19.823796000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.099000</v>
+        <v>976.09900000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.390300</v>
+        <v>-79.390299999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>71376.522433</v>
+        <v>71376.522433000006</v>
       </c>
       <c r="AP13" s="1">
         <v>19.826812</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.298000</v>
+        <v>984.298</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.770300</v>
+        <v>-90.770300000000006</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>71387.020725</v>
+        <v>71387.020724999995</v>
       </c>
       <c r="AU13" s="1">
-        <v>19.829728</v>
+        <v>19.829727999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.182000</v>
+        <v>994.18200000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.221000</v>
+        <v>-108.221</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>71398.255109</v>
+        <v>71398.255109000005</v>
       </c>
       <c r="AZ13" s="1">
         <v>19.832849</v>
       </c>
       <c r="BA13" s="1">
-        <v>1002.450000</v>
+        <v>1002.45</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.709000</v>
+        <v>-123.709</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>71409.225126</v>
+        <v>71409.225126000005</v>
       </c>
       <c r="BE13" s="1">
-        <v>19.835896</v>
+        <v>19.835896000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1041.200000</v>
+        <v>1041.2</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.876000</v>
+        <v>-194.876</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>71420.450588</v>
+        <v>71420.450588000007</v>
       </c>
       <c r="BJ13" s="1">
-        <v>19.839014</v>
+        <v>19.839013999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1108.190000</v>
+        <v>1108.19</v>
       </c>
       <c r="BL13" s="1">
-        <v>-309.780000</v>
+        <v>-309.77999999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>71431.545593</v>
+        <v>71431.545593000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>19.842096</v>
+        <v>19.842096000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1216.750000</v>
+        <v>1216.75</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-489.548000</v>
+        <v>-489.548</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>71442.711034</v>
+        <v>71442.711034000007</v>
       </c>
       <c r="BT13" s="1">
         <v>19.845198</v>
       </c>
       <c r="BU13" s="1">
-        <v>1338.300000</v>
+        <v>1338.3</v>
       </c>
       <c r="BV13" s="1">
-        <v>-685.620000</v>
+        <v>-685.62</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>71454.101195</v>
+        <v>71454.101194999996</v>
       </c>
       <c r="BY13" s="1">
-        <v>19.848361</v>
+        <v>19.848361000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1472.940000</v>
+        <v>1472.94</v>
       </c>
       <c r="CA13" s="1">
-        <v>-893.403000</v>
+        <v>-893.40300000000002</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>71466.210987</v>
+        <v>71466.210986999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>19.851725</v>
+        <v>19.851724999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1821.940000</v>
+        <v>1821.94</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1386.100000</v>
+        <v>-1386.1</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>71293.930079</v>
+        <v>71293.930078999998</v>
       </c>
       <c r="B14" s="1">
-        <v>19.803869</v>
+        <v>19.803868999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>902.346000</v>
+        <v>902.346</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.738000</v>
+        <v>-194.738</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>71304.726158</v>
+        <v>71304.726158000005</v>
       </c>
       <c r="G14" s="1">
-        <v>19.806868</v>
+        <v>19.806868000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>919.126000</v>
+        <v>919.12599999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.518000</v>
+        <v>-165.518</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>71315.242675</v>
+        <v>71315.242675000001</v>
       </c>
       <c r="L14" s="1">
-        <v>19.809790</v>
+        <v>19.80979</v>
       </c>
       <c r="M14" s="1">
-        <v>942.367000</v>
+        <v>942.36699999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.314000</v>
+        <v>-118.31399999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>71325.516309</v>
+        <v>71325.516308999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>19.812643</v>
+        <v>19.812643000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>949.230000</v>
+        <v>949.23</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.738000</v>
+        <v>-102.738</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>71335.440092</v>
+        <v>71335.440092000004</v>
       </c>
       <c r="V14" s="1">
-        <v>19.815400</v>
+        <v>19.8154</v>
       </c>
       <c r="W14" s="1">
-        <v>956.120000</v>
+        <v>956.12</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.193900</v>
+        <v>-88.193899999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>71345.634539</v>
+        <v>71345.634539000006</v>
       </c>
       <c r="AA14" s="1">
-        <v>19.818232</v>
+        <v>19.818231999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.700000</v>
+        <v>963.7</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.903000</v>
+        <v>-76.903000000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>71355.908205</v>
       </c>
       <c r="AF14" s="1">
-        <v>19.821086</v>
+        <v>19.821086000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>968.725000</v>
+        <v>968.72500000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.777200</v>
+        <v>-74.777199999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>71366.108896</v>
+        <v>71366.108896000005</v>
       </c>
       <c r="AK14" s="1">
         <v>19.823919</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.113000</v>
+        <v>976.11300000000006</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.414800</v>
+        <v>-79.4148</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>71376.804663</v>
+        <v>71376.804663000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>19.826890</v>
+        <v>19.826889999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.287000</v>
+        <v>984.28700000000003</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.783800</v>
+        <v>-90.783799999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>71387.383300</v>
+        <v>71387.383300000001</v>
       </c>
       <c r="AU14" s="1">
         <v>19.829829</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.197000</v>
+        <v>994.197</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.216000</v>
+        <v>-108.21599999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>71398.612261</v>
+        <v>71398.612261000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>19.832948</v>
+        <v>19.832947999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.720000</v>
+        <v>-123.72</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>71409.587207</v>
+        <v>71409.587207000004</v>
       </c>
       <c r="BE14" s="1">
-        <v>19.835996</v>
+        <v>19.835996000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1041.210000</v>
+        <v>1041.21</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.878000</v>
+        <v>-194.87799999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>71421.201032</v>
+        <v>71421.201031999997</v>
       </c>
       <c r="BJ14" s="1">
         <v>19.839223</v>
       </c>
       <c r="BK14" s="1">
-        <v>1108.210000</v>
+        <v>1108.21</v>
       </c>
       <c r="BL14" s="1">
-        <v>-309.777000</v>
+        <v>-309.77699999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>71432.359032</v>
+        <v>71432.359031999993</v>
       </c>
       <c r="BO14" s="1">
-        <v>19.842322</v>
+        <v>19.842321999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1216.720000</v>
+        <v>1216.72</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-489.457000</v>
+        <v>-489.45699999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>71443.121723</v>
+        <v>71443.121723000004</v>
       </c>
       <c r="BT14" s="1">
         <v>19.845312</v>
       </c>
       <c r="BU14" s="1">
-        <v>1338.360000</v>
+        <v>1338.36</v>
       </c>
       <c r="BV14" s="1">
-        <v>-685.614000</v>
+        <v>-685.61400000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>71454.544587</v>
+        <v>71454.544586999997</v>
       </c>
       <c r="BY14" s="1">
         <v>19.848485</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1472.740000</v>
+        <v>1472.74</v>
       </c>
       <c r="CA14" s="1">
-        <v>-893.436000</v>
+        <v>-893.43600000000004</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>71467.064634</v>
+        <v>71467.064633999995</v>
       </c>
       <c r="CD14" s="1">
         <v>19.851962</v>
       </c>
       <c r="CE14" s="1">
-        <v>1822.220000</v>
+        <v>1822.22</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1384.910000</v>
+        <v>-1384.91</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>71294.296656</v>
+        <v>71294.296656000006</v>
       </c>
       <c r="B15" s="1">
-        <v>19.803971</v>
+        <v>19.803971000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>902.121000</v>
+        <v>902.12099999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-194.776000</v>
+        <v>-194.77600000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>71305.070224</v>
+        <v>71305.070223999996</v>
       </c>
       <c r="G15" s="1">
-        <v>19.806964</v>
+        <v>19.806964000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>919.061000</v>
+        <v>919.06100000000004</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.143000</v>
+        <v>-165.143</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>71315.589411</v>
+        <v>71315.589410999994</v>
       </c>
       <c r="L15" s="1">
-        <v>19.809886</v>
+        <v>19.809885999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>942.387000</v>
+        <v>942.38699999999994</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.238000</v>
+        <v>-118.238</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>71325.866485</v>
+        <v>71325.866485000006</v>
       </c>
       <c r="Q15" s="1">
-        <v>19.812741</v>
+        <v>19.812740999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>949.265000</v>
+        <v>949.26499999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.773000</v>
+        <v>-102.773</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>71335.856409</v>
       </c>
       <c r="V15" s="1">
-        <v>19.815516</v>
+        <v>19.815515999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>956.211000</v>
+        <v>956.21100000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.151800</v>
+        <v>-88.151799999999994</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>71346.063115</v>
+        <v>71346.063114999997</v>
       </c>
       <c r="AA15" s="1">
         <v>19.818351</v>
       </c>
       <c r="AB15" s="1">
-        <v>963.764000</v>
+        <v>963.76400000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.883000</v>
+        <v>-76.882999999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>71356.163612</v>
+        <v>71356.163612000004</v>
       </c>
       <c r="AF15" s="1">
-        <v>19.821157</v>
+        <v>19.821156999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.673000</v>
+        <v>968.673</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.810400</v>
+        <v>-74.810400000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>71366.377233</v>
+        <v>71366.377233000007</v>
       </c>
       <c r="AK15" s="1">
-        <v>19.823994</v>
+        <v>19.823993999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.097000</v>
+        <v>976.09699999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.385600</v>
+        <v>-79.385599999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>71377.163728</v>
       </c>
       <c r="AP15" s="1">
-        <v>19.826990</v>
+        <v>19.826989999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.287000</v>
+        <v>984.28700000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.772500</v>
+        <v>-90.772499999999994</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>71387.751331</v>
+        <v>71387.751331000007</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.829931</v>
+        <v>19.829930999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.186000</v>
+        <v>994.18600000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.204000</v>
+        <v>-108.20399999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>71398.974804</v>
+        <v>71398.974803999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>19.833049</v>
+        <v>19.833048999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1002.470000</v>
+        <v>1002.47</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.713000</v>
+        <v>-123.71299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>71410.311367</v>
+        <v>71410.311367000002</v>
       </c>
       <c r="BE15" s="1">
         <v>19.836198</v>
       </c>
       <c r="BF15" s="1">
-        <v>1041.210000</v>
+        <v>1041.21</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.871000</v>
+        <v>-194.87100000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>71421.599848</v>
+        <v>71421.599847999998</v>
       </c>
       <c r="BJ15" s="1">
         <v>19.839333</v>
       </c>
       <c r="BK15" s="1">
-        <v>1108.200000</v>
+        <v>1108.2</v>
       </c>
       <c r="BL15" s="1">
-        <v>-309.796000</v>
+        <v>-309.79599999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>71432.779148</v>
+        <v>71432.779148000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>19.842439</v>
+        <v>19.842438999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1216.720000</v>
+        <v>1216.72</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-489.516000</v>
+        <v>-489.51600000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>71443.551790</v>
+        <v>71443.551789999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.845431</v>
+        <v>19.845431000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1338.350000</v>
+        <v>1338.35</v>
       </c>
       <c r="BV15" s="1">
-        <v>-685.521000</v>
+        <v>-685.52099999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>71455.288618</v>
+        <v>71455.288618000006</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.848691</v>
+        <v>19.848690999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1472.790000</v>
+        <v>1472.79</v>
       </c>
       <c r="CA15" s="1">
-        <v>-893.329000</v>
+        <v>-893.32899999999995</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>71467.289289</v>
+        <v>71467.289288999993</v>
       </c>
       <c r="CD15" s="1">
-        <v>19.852025</v>
+        <v>19.852025000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1822.160000</v>
+        <v>1822.16</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1384.720000</v>
+        <v>-1384.72</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>71294.641342</v>
+        <v>71294.641342000003</v>
       </c>
       <c r="B16" s="1">
         <v>19.804067</v>
       </c>
       <c r="C16" s="1">
-        <v>902.199000</v>
+        <v>902.19899999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.882000</v>
+        <v>-194.88200000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>71305.413456</v>
+        <v>71305.413455999995</v>
       </c>
       <c r="G16" s="1">
-        <v>19.807059</v>
+        <v>19.807058999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>919.208000</v>
+        <v>919.20799999999997</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.194000</v>
+        <v>-165.19399999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>71315.937571</v>
+        <v>71315.937571000002</v>
       </c>
       <c r="L16" s="1">
-        <v>19.809983</v>
+        <v>19.809982999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>942.360000</v>
+        <v>942.36</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.352000</v>
+        <v>-118.352</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>71326.298005</v>
+        <v>71326.298005000004</v>
       </c>
       <c r="Q16" s="1">
-        <v>19.812861</v>
+        <v>19.812861000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>949.239000</v>
+        <v>949.23900000000003</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.780000</v>
+        <v>-102.78</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>71336.137640</v>
+        <v>71336.137640000001</v>
       </c>
       <c r="V16" s="1">
-        <v>19.815594</v>
+        <v>19.815594000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>956.178000</v>
+        <v>956.178</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.147100</v>
+        <v>-88.147099999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>71346.347786</v>
+        <v>71346.347785999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.818430</v>
+        <v>19.818429999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>963.762000</v>
+        <v>963.76199999999994</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.816700</v>
+        <v>-76.816699999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>71356.508364</v>
+        <v>71356.508363999994</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.821252</v>
+        <v>19.821252000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>968.692000</v>
+        <v>968.69200000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.771700</v>
+        <v>-74.771699999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>71366.712032</v>
+        <v>71366.712031999996</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.824087</v>
+        <v>19.824086999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.106000</v>
+        <v>976.10599999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.383500</v>
+        <v>-79.383499999999998</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>71377.522834</v>
+        <v>71377.522834000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>19.827090</v>
+        <v>19.827089999999998</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.295000</v>
+        <v>984.29499999999996</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.802900</v>
+        <v>-90.802899999999994</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>71388.476980</v>
+        <v>71388.476980000007</v>
       </c>
       <c r="AU16" s="1">
-        <v>19.830132</v>
+        <v>19.830131999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.181000</v>
+        <v>994.18100000000004</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.199000</v>
+        <v>-108.199</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>71399.690073</v>
+        <v>71399.690073000005</v>
       </c>
       <c r="AZ16" s="1">
         <v>19.833247</v>
       </c>
       <c r="BA16" s="1">
-        <v>1002.460000</v>
+        <v>1002.46</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.736000</v>
+        <v>-123.736</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>71410.673446</v>
+        <v>71410.673446000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>19.836298</v>
+        <v>19.836297999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1041.190000</v>
+        <v>1041.19</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.881000</v>
+        <v>-194.881</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>71421.974326</v>
+        <v>71421.974325999996</v>
       </c>
       <c r="BJ16" s="1">
         <v>19.839437</v>
       </c>
       <c r="BK16" s="1">
-        <v>1108.220000</v>
+        <v>1108.22</v>
       </c>
       <c r="BL16" s="1">
-        <v>-309.809000</v>
+        <v>-309.80900000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>71433.485942</v>
+        <v>71433.485941999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.842635</v>
+        <v>19.842635000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1216.780000</v>
+        <v>1216.78</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-489.490000</v>
+        <v>-489.49</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>71444.299224</v>
+        <v>71444.299224000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.845639</v>
+        <v>19.845638999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1338.330000</v>
+        <v>1338.33</v>
       </c>
       <c r="BV16" s="1">
-        <v>-685.545000</v>
+        <v>-685.54499999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>71455.408649</v>
+        <v>71455.408649000005</v>
       </c>
       <c r="BY16" s="1">
-        <v>19.848725</v>
+        <v>19.848725000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1472.690000</v>
+        <v>1472.69</v>
       </c>
       <c r="CA16" s="1">
-        <v>-893.366000</v>
+        <v>-893.36599999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>71467.810625</v>
+        <v>71467.810624999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>19.852170</v>
+        <v>19.852170000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1821.540000</v>
+        <v>1821.54</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1386.080000</v>
+        <v>-1386.08</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>71294.984605</v>
+        <v>71294.984605000005</v>
       </c>
       <c r="B17" s="1">
-        <v>19.804162</v>
+        <v>19.804162000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>902.206000</v>
+        <v>902.20600000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-194.779000</v>
+        <v>-194.779</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>71305.847983</v>
       </c>
       <c r="G17" s="1">
-        <v>19.807180</v>
+        <v>19.807179999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>919.451000</v>
+        <v>919.45100000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.168000</v>
+        <v>-165.16800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>71316.368097</v>
+        <v>71316.368096999999</v>
       </c>
       <c r="L17" s="1">
-        <v>19.810102</v>
+        <v>19.810102000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>942.238000</v>
+        <v>942.23800000000006</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.309000</v>
+        <v>-118.309</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>71326.569316</v>
+        <v>71326.569315999994</v>
       </c>
       <c r="Q17" s="1">
-        <v>19.812936</v>
+        <v>19.812936000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>949.278000</v>
+        <v>949.27800000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.764000</v>
+        <v>-102.764</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>71336.482392</v>
+        <v>71336.482392000005</v>
       </c>
       <c r="V17" s="1">
-        <v>19.815690</v>
+        <v>19.81569</v>
       </c>
       <c r="W17" s="1">
-        <v>956.209000</v>
+        <v>956.20899999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.189300</v>
+        <v>-88.189300000000003</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>71346.694489</v>
+        <v>71346.694489000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>19.818526</v>
+        <v>19.818525999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.745000</v>
+        <v>963.745</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.876900</v>
+        <v>-76.876900000000006</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>71356.854753</v>
+        <v>71356.854753000007</v>
       </c>
       <c r="AF17" s="1">
-        <v>19.821349</v>
+        <v>19.821349000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>968.739000</v>
+        <v>968.73900000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.766000</v>
+        <v>-74.766000000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>71367.397503</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.824277</v>
+        <v>19.824276999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.122000</v>
+        <v>976.12199999999996</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.394200</v>
+        <v>-79.394199999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>71378.245999</v>
+        <v>71378.245999000006</v>
       </c>
       <c r="AP17" s="1">
-        <v>19.827291</v>
+        <v>19.827290999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.298000</v>
+        <v>984.298</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.790100</v>
+        <v>-90.790099999999995</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>71388.867830</v>
+        <v>71388.867830000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>19.830241</v>
+        <v>19.830241000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.198000</v>
+        <v>994.19799999999998</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.213000</v>
+        <v>-108.21299999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>71400.081410</v>
+        <v>71400.081409999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.833356</v>
+        <v>19.833355999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1002.450000</v>
+        <v>1002.45</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.726000</v>
+        <v>-123.726</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>71411.033326</v>
+        <v>71411.033326000004</v>
       </c>
       <c r="BE17" s="1">
-        <v>19.836398</v>
+        <v>19.836397999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1041.200000</v>
+        <v>1041.2</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.858000</v>
+        <v>-194.858</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>71422.674644</v>
+        <v>71422.674643999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>19.839632</v>
+        <v>19.839632000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1108.210000</v>
+        <v>1108.21</v>
       </c>
       <c r="BL17" s="1">
-        <v>-309.788000</v>
+        <v>-309.78800000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>71433.598173</v>
+        <v>71433.598173000006</v>
       </c>
       <c r="BO17" s="1">
-        <v>19.842666</v>
+        <v>19.842666000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1216.760000</v>
+        <v>1216.76</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-489.467000</v>
+        <v>-489.46699999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>71444.428222</v>
+        <v>71444.428222000002</v>
       </c>
       <c r="BT17" s="1">
         <v>19.845675</v>
       </c>
       <c r="BU17" s="1">
-        <v>1338.330000</v>
+        <v>1338.33</v>
       </c>
       <c r="BV17" s="1">
-        <v>-685.418000</v>
+        <v>-685.41800000000001</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>71455.833193</v>
+        <v>71455.833192999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>19.848843</v>
+        <v>19.848842999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1472.780000</v>
+        <v>1472.78</v>
       </c>
       <c r="CA17" s="1">
-        <v>-893.311000</v>
+        <v>-893.31100000000004</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>71468.328422</v>
+        <v>71468.328422000006</v>
       </c>
       <c r="CD17" s="1">
-        <v>19.852313</v>
+        <v>19.852312999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1821.650000</v>
+        <v>1821.65</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1385.160000</v>
+        <v>-1385.16</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>71295.430477</v>
+        <v>71295.430477000002</v>
       </c>
       <c r="B18" s="1">
-        <v>19.804286</v>
+        <v>19.804286000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>902.327000</v>
+        <v>902.327</v>
       </c>
       <c r="D18" s="1">
-        <v>-194.869000</v>
+        <v>-194.869</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>71306.111823</v>
+        <v>71306.111822999999</v>
       </c>
       <c r="G18" s="1">
-        <v>19.807253</v>
+        <v>19.807252999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>918.939000</v>
+        <v>918.93899999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.546000</v>
+        <v>-165.54599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>71316.647841</v>
+        <v>71316.647840999998</v>
       </c>
       <c r="L18" s="1">
-        <v>19.810180</v>
+        <v>19.810179999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>942.423000</v>
+        <v>942.423</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.322000</v>
+        <v>-118.322</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>71326.919524</v>
+        <v>71326.919523999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>19.813033</v>
+        <v>19.813033000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>949.263000</v>
+        <v>949.26300000000003</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.781000</v>
+        <v>-102.78100000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>71336.826086</v>
+        <v>71336.826086000001</v>
       </c>
       <c r="V18" s="1">
-        <v>19.815785</v>
+        <v>19.815785000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>956.251000</v>
+        <v>956.25099999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.162900</v>
+        <v>-88.162899999999993</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>71347.039208</v>
+        <v>71347.039208000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.818622</v>
+        <v>19.818622000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>963.756000</v>
+        <v>963.75599999999997</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.877400</v>
+        <v>-76.877399999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>71357.540010</v>
+        <v>71357.540009999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.821539</v>
+        <v>19.821539000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>968.717000</v>
+        <v>968.71699999999998</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.821800</v>
+        <v>-74.821799999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>71367.769997</v>
+        <v>71367.769996999996</v>
       </c>
       <c r="AK18" s="1">
-        <v>19.824381</v>
+        <v>19.824380999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.138000</v>
+        <v>976.13800000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.384800</v>
+        <v>-79.384799999999998</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>71378.600639</v>
+        <v>71378.600638999997</v>
       </c>
       <c r="AP18" s="1">
         <v>19.827389</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.300000</v>
+        <v>984.3</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.783300</v>
+        <v>-90.783299999999997</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>71389.232385</v>
+        <v>71389.232384999996</v>
       </c>
       <c r="AU18" s="1">
-        <v>19.830342</v>
+        <v>19.830342000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.203000</v>
+        <v>994.20299999999997</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.231000</v>
+        <v>-108.23099999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>71400.721715</v>
+        <v>71400.721715000007</v>
       </c>
       <c r="AZ18" s="1">
         <v>19.833534</v>
       </c>
       <c r="BA18" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.699000</v>
+        <v>-123.699</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>71411.708596</v>
+        <v>71411.708595999997</v>
       </c>
       <c r="BE18" s="1">
         <v>19.836586</v>
       </c>
       <c r="BF18" s="1">
-        <v>1041.200000</v>
+        <v>1041.2</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.877000</v>
+        <v>-194.87700000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>71423.130468</v>
+        <v>71423.130468000003</v>
       </c>
       <c r="BJ18" s="1">
         <v>19.839758</v>
       </c>
       <c r="BK18" s="1">
-        <v>1108.230000</v>
+        <v>1108.23</v>
       </c>
       <c r="BL18" s="1">
-        <v>-309.779000</v>
+        <v>-309.779</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>71434.020629</v>
+        <v>71434.020629000006</v>
       </c>
       <c r="BO18" s="1">
-        <v>19.842784</v>
+        <v>19.842784000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-489.508000</v>
+        <v>-489.50799999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>71444.835400</v>
+        <v>71444.835399999996</v>
       </c>
       <c r="BT18" s="1">
-        <v>19.845788</v>
+        <v>19.845787999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1338.340000</v>
+        <v>1338.34</v>
       </c>
       <c r="BV18" s="1">
-        <v>-685.385000</v>
+        <v>-685.38499999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>71456.253800</v>
+        <v>71456.253800000006</v>
       </c>
       <c r="BY18" s="1">
-        <v>19.848959</v>
+        <v>19.848959000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1472.900000</v>
+        <v>1472.9</v>
       </c>
       <c r="CA18" s="1">
-        <v>-893.430000</v>
+        <v>-893.43</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>71468.881945</v>
+        <v>71468.881945000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>19.852467</v>
+        <v>19.852467000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1821.970000</v>
+        <v>1821.97</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1384.740000</v>
+        <v>-1384.74</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>71295.684437</v>
+        <v>71295.684437000004</v>
       </c>
       <c r="B19" s="1">
         <v>19.804357</v>
       </c>
       <c r="C19" s="1">
-        <v>902.263000</v>
+        <v>902.26300000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-194.775000</v>
+        <v>-194.77500000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>71306.456542</v>
       </c>
       <c r="G19" s="1">
-        <v>19.807349</v>
+        <v>19.807348999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>919.361000</v>
+        <v>919.36099999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.428000</v>
+        <v>-165.428</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>71316.993553</v>
+        <v>71316.993552999993</v>
       </c>
       <c r="L19" s="1">
-        <v>19.810276</v>
+        <v>19.810276000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>942.364000</v>
+        <v>942.36400000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.390000</v>
+        <v>-118.39</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>71327.270163</v>
+        <v>71327.270162999994</v>
       </c>
       <c r="Q19" s="1">
-        <v>19.813131</v>
+        <v>19.813130999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>949.235000</v>
+        <v>949.23500000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.793000</v>
+        <v>-102.79300000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>71337.511559</v>
+        <v>71337.511559000006</v>
       </c>
       <c r="V19" s="1">
-        <v>19.815975</v>
+        <v>19.815975000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>956.141000</v>
+        <v>956.14099999999996</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.193600</v>
+        <v>-88.193600000000004</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>71347.741545</v>
+        <v>71347.741544999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>19.818817</v>
+        <v>19.818816999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>963.798000</v>
+        <v>963.798</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.978000</v>
+        <v>-76.977999999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>71357.884235</v>
+        <v>71357.884235000005</v>
       </c>
       <c r="AF19" s="1">
-        <v>19.821635</v>
+        <v>19.821635000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>968.751000</v>
+        <v>968.75099999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.704300</v>
+        <v>-74.704300000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>71368.115213</v>
+        <v>71368.115212999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.824476</v>
+        <v>19.824476000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.104000</v>
+        <v>976.10400000000004</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.395700</v>
+        <v>-79.395700000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>71378.955279</v>
+        <v>71378.955279000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>19.827488</v>
+        <v>19.827487999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.295000</v>
+        <v>984.29499999999996</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.786100</v>
+        <v>-90.786100000000005</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>71389.914385</v>
+        <v>71389.914384999996</v>
       </c>
       <c r="AU19" s="1">
-        <v>19.830532</v>
+        <v>19.830532000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.192000</v>
+        <v>994.19200000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.222000</v>
+        <v>-108.22199999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>71401.124963</v>
+        <v>71401.124962999995</v>
       </c>
       <c r="AZ19" s="1">
-        <v>19.833646</v>
+        <v>19.833646000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1002.470000</v>
+        <v>1002.47</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.708000</v>
+        <v>-123.708</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>71412.145076</v>
+        <v>71412.145076000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>19.836707</v>
+        <v>19.836707000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1041.190000</v>
+        <v>1041.19</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.895000</v>
+        <v>-194.89500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>71423.522341</v>
+        <v>71423.522341000004</v>
       </c>
       <c r="BJ19" s="1">
-        <v>19.839867</v>
+        <v>19.839867000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1108.230000</v>
+        <v>1108.23</v>
       </c>
       <c r="BL19" s="1">
-        <v>-309.798000</v>
+        <v>-309.798</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>71434.414949</v>
+        <v>71434.414948999998</v>
       </c>
       <c r="BO19" s="1">
         <v>19.842893</v>
       </c>
       <c r="BP19" s="1">
-        <v>1216.730000</v>
+        <v>1216.73</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-489.508000</v>
+        <v>-489.50799999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>71445.267416</v>
+        <v>71445.267416000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>19.845908</v>
+        <v>19.845908000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1338.290000</v>
+        <v>1338.29</v>
       </c>
       <c r="BV19" s="1">
-        <v>-685.297000</v>
+        <v>-685.29700000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>71456.699705</v>
+        <v>71456.699705000006</v>
       </c>
       <c r="BY19" s="1">
         <v>19.849083</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1472.830000</v>
+        <v>1472.83</v>
       </c>
       <c r="CA19" s="1">
-        <v>-893.395000</v>
+        <v>-893.39499999999998</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>71469.409688</v>
       </c>
       <c r="CD19" s="1">
-        <v>19.852614</v>
+        <v>19.852613999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1821.910000</v>
+        <v>1821.91</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1386.160000</v>
+        <v>-1386.16</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>71296.022700</v>
+        <v>71296.022700000001</v>
       </c>
       <c r="B20" s="1">
         <v>19.804451</v>
       </c>
       <c r="C20" s="1">
-        <v>902.234000</v>
+        <v>902.23400000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-194.600000</v>
+        <v>-194.6</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>71306.799278</v>
+        <v>71306.799278000006</v>
       </c>
       <c r="G20" s="1">
         <v>19.807444</v>
       </c>
       <c r="H20" s="1">
-        <v>919.394000</v>
+        <v>919.39400000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.258000</v>
+        <v>-165.25800000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>71317.351168</v>
+        <v>71317.351167999994</v>
       </c>
       <c r="L20" s="1">
-        <v>19.810375</v>
+        <v>19.810375000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>942.399000</v>
+        <v>942.399</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.301000</v>
+        <v>-118.301</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>71327.964067</v>
+        <v>71327.964066999994</v>
       </c>
       <c r="Q20" s="1">
         <v>19.813323</v>
       </c>
       <c r="R20" s="1">
-        <v>949.238000</v>
+        <v>949.23800000000006</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.739000</v>
+        <v>-102.739</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>71337.856772</v>
+        <v>71337.856771999999</v>
       </c>
       <c r="V20" s="1">
-        <v>19.816071</v>
+        <v>19.816071000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>956.264000</v>
+        <v>956.26400000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.222300</v>
+        <v>-88.222300000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>71348.086263</v>
+        <v>71348.086263000005</v>
       </c>
       <c r="AA20" s="1">
-        <v>19.818913</v>
+        <v>19.818912999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>963.725000</v>
+        <v>963.72500000000002</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.071900</v>
+        <v>-77.071899999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>71358.224986</v>
+        <v>71358.224986000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>19.821729</v>
+        <v>19.821729000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>968.664000</v>
+        <v>968.66399999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.756800</v>
+        <v>-74.756799999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>71368.772908</v>
+        <v>71368.772907999999</v>
       </c>
       <c r="AK20" s="1">
         <v>19.824659</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.114000</v>
+        <v>976.11400000000003</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.374100</v>
+        <v>-79.374099999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>71379.645214</v>
+        <v>71379.645214000004</v>
       </c>
       <c r="AP20" s="1">
         <v>19.827679</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.311000</v>
+        <v>984.31100000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.797300</v>
+        <v>-90.797300000000007</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>71390.393055</v>
+        <v>71390.393054999993</v>
       </c>
       <c r="AU20" s="1">
         <v>19.830665</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.192000</v>
+        <v>994.19200000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.223000</v>
+        <v>-108.223</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>71401.512832</v>
+        <v>71401.512831999993</v>
       </c>
       <c r="AZ20" s="1">
-        <v>19.833754</v>
+        <v>19.833753999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1002.490000</v>
+        <v>1002.49</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.730000</v>
+        <v>-123.73</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>71412.505666</v>
+        <v>71412.505665999997</v>
       </c>
       <c r="BE20" s="1">
         <v>19.836807</v>
       </c>
       <c r="BF20" s="1">
-        <v>1041.200000</v>
+        <v>1041.2</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.898000</v>
+        <v>-194.898</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>71423.899009</v>
+        <v>71423.899009000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>19.839972</v>
+        <v>19.839971999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1108.200000</v>
+        <v>1108.2</v>
       </c>
       <c r="BL20" s="1">
-        <v>-309.813000</v>
+        <v>-309.81299999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>71434.837046</v>
+        <v>71434.837046000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>19.843010</v>
+        <v>19.84301</v>
       </c>
       <c r="BP20" s="1">
-        <v>1216.800000</v>
+        <v>1216.8</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-489.488000</v>
+        <v>-489.488</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>71445.705880</v>
+        <v>71445.705879999994</v>
       </c>
       <c r="BT20" s="1">
-        <v>19.846029</v>
+        <v>19.846029000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1338.270000</v>
+        <v>1338.27</v>
       </c>
       <c r="BV20" s="1">
-        <v>-685.284000</v>
+        <v>-685.28399999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>71457.117336</v>
+        <v>71457.117335999996</v>
       </c>
       <c r="BY20" s="1">
-        <v>19.849199</v>
+        <v>19.849198999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1472.800000</v>
+        <v>1472.8</v>
       </c>
       <c r="CA20" s="1">
-        <v>-893.387000</v>
+        <v>-893.38699999999994</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>71469.928006</v>
+        <v>71469.928006000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>19.852758</v>
+        <v>19.852758000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1823.230000</v>
+        <v>1823.23</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1385.920000</v>
+        <v>-1385.92</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>71296.364939</v>
+        <v>71296.364939000006</v>
       </c>
       <c r="B21" s="1">
-        <v>19.804546</v>
+        <v>19.804545999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>902.291000</v>
+        <v>902.29100000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-194.774000</v>
+        <v>-194.774</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>71307.493213</v>
+        <v>71307.493212999994</v>
       </c>
       <c r="G21" s="1">
         <v>19.807637</v>
       </c>
       <c r="H21" s="1">
-        <v>919.841000</v>
+        <v>919.84100000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-165.616000</v>
+        <v>-165.61600000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>71318.043583</v>
+        <v>71318.043583000006</v>
       </c>
       <c r="L21" s="1">
         <v>19.810568</v>
       </c>
       <c r="M21" s="1">
-        <v>942.460000</v>
+        <v>942.46</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.302000</v>
+        <v>-118.30200000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>71328.316226</v>
+        <v>71328.316225999995</v>
       </c>
       <c r="Q21" s="1">
-        <v>19.813421</v>
+        <v>19.813421000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>949.263000</v>
+        <v>949.26300000000003</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.734000</v>
+        <v>-102.73399999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>71338.199012</v>
+        <v>71338.199011999997</v>
       </c>
       <c r="V21" s="1">
-        <v>19.816166</v>
+        <v>19.816165999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>956.260000</v>
+        <v>956.26</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.190200</v>
+        <v>-88.190200000000004</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>71348.436934</v>
+        <v>71348.436933999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>19.819010</v>
+        <v>19.819009999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>963.728000</v>
+        <v>963.72799999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.929300</v>
+        <v>-76.929299999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>71358.884201</v>
+        <v>71358.884200999993</v>
       </c>
       <c r="AF21" s="1">
-        <v>19.821912</v>
+        <v>19.821912000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>968.685000</v>
+        <v>968.68499999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.734300</v>
+        <v>-74.734300000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>71369.162299</v>
+        <v>71369.162299000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>19.824767</v>
+        <v>19.824767000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.136000</v>
+        <v>976.13599999999997</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.401500</v>
+        <v>-79.401499999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>71380.068302</v>
@@ -5484,572 +5900,572 @@
         <v>19.827797</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.310000</v>
+        <v>984.31</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.788700</v>
+        <v>-90.788700000000006</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>71390.755630</v>
+        <v>71390.75563</v>
       </c>
       <c r="AU21" s="1">
         <v>19.830765</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.183000</v>
+        <v>994.18299999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.228000</v>
+        <v>-108.22799999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>71401.872432</v>
+        <v>71401.872432000004</v>
       </c>
       <c r="AZ21" s="1">
-        <v>19.833853</v>
+        <v>19.833853000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1002.470000</v>
+        <v>1002.47</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.711000</v>
+        <v>-123.711</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>71412.866766</v>
+        <v>71412.866766000006</v>
       </c>
       <c r="BE21" s="1">
         <v>19.836907</v>
       </c>
       <c r="BF21" s="1">
-        <v>1041.210000</v>
+        <v>1041.21</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.894000</v>
+        <v>-194.89400000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>71424.320371</v>
+        <v>71424.320370999994</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.840089</v>
+        <v>19.840088999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1108.210000</v>
+        <v>1108.21</v>
       </c>
       <c r="BL21" s="1">
-        <v>-309.798000</v>
+        <v>-309.798</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>71435.234340</v>
+        <v>71435.234339999995</v>
       </c>
       <c r="BO21" s="1">
         <v>19.843121</v>
       </c>
       <c r="BP21" s="1">
-        <v>1216.750000</v>
+        <v>1216.75</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-489.487000</v>
+        <v>-489.48700000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>71446.098743</v>
+        <v>71446.098742999995</v>
       </c>
       <c r="BT21" s="1">
-        <v>19.846139</v>
+        <v>19.846139000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1338.220000</v>
+        <v>1338.22</v>
       </c>
       <c r="BV21" s="1">
-        <v>-685.183000</v>
+        <v>-685.18299999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>71457.543436</v>
+        <v>71457.543436000007</v>
       </c>
       <c r="BY21" s="1">
         <v>19.849318</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1472.790000</v>
+        <v>1472.79</v>
       </c>
       <c r="CA21" s="1">
-        <v>-893.318000</v>
+        <v>-893.31799999999998</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>71470.445333</v>
+        <v>71470.445332999996</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.852901</v>
+        <v>19.852900999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1822.990000</v>
+        <v>1822.99</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1384.870000</v>
+        <v>-1384.87</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>71297.049420</v>
+        <v>71297.049419999996</v>
       </c>
       <c r="B22" s="1">
-        <v>19.804736</v>
+        <v>19.804735999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>902.230000</v>
+        <v>902.23</v>
       </c>
       <c r="D22" s="1">
-        <v>-194.857000</v>
+        <v>-194.857</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>71307.846364</v>
+        <v>71307.846363999997</v>
       </c>
       <c r="G22" s="1">
-        <v>19.807735</v>
+        <v>19.807735000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>919.478000</v>
+        <v>919.47799999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.313000</v>
+        <v>-165.31299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>71318.381855</v>
       </c>
       <c r="L22" s="1">
-        <v>19.810662</v>
+        <v>19.810662000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>942.365000</v>
+        <v>942.36500000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.299000</v>
+        <v>-118.29900000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>71328.663458</v>
+        <v>71328.663457999995</v>
       </c>
       <c r="Q22" s="1">
-        <v>19.813518</v>
+        <v>19.813517999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>949.271000</v>
+        <v>949.27099999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.734000</v>
+        <v>-102.73399999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>71338.860179</v>
+        <v>71338.860178999996</v>
       </c>
       <c r="V22" s="1">
-        <v>19.816350</v>
+        <v>19.81635</v>
       </c>
       <c r="W22" s="1">
-        <v>956.204000</v>
+        <v>956.20399999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.192000</v>
+        <v>-88.191999999999993</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>71349.106535</v>
+        <v>71349.106534999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.819196</v>
+        <v>19.819196000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.790000</v>
+        <v>963.79</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.973300</v>
+        <v>-76.973299999999995</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>71359.257658</v>
+        <v>71359.257658000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>19.822016</v>
+        <v>19.822016000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>968.640000</v>
+        <v>968.64</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.723800</v>
+        <v>-74.723799999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>71369.508011</v>
+        <v>71369.508010999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>19.824863</v>
+        <v>19.824863000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.108000</v>
+        <v>976.10799999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.400800</v>
+        <v>-79.400800000000004</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>71380.448732</v>
+        <v>71380.448732000004</v>
       </c>
       <c r="AP22" s="1">
-        <v>19.827902</v>
+        <v>19.827902000000002</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.312000</v>
+        <v>984.31200000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.790100</v>
+        <v>-90.790099999999995</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>71391.173727</v>
+        <v>71391.173727000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.830882</v>
+        <v>19.830881999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.192000</v>
+        <v>994.19200000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.215000</v>
+        <v>-108.215</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>71402.296016</v>
+        <v>71402.296015999993</v>
       </c>
       <c r="AZ22" s="1">
-        <v>19.833971</v>
+        <v>19.833970999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1002.470000</v>
+        <v>1002.47</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.722000</v>
+        <v>-123.72199999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>71413.297313</v>
+        <v>71413.297313000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>19.837027</v>
+        <v>19.837026999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1041.230000</v>
+        <v>1041.23</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.860000</v>
+        <v>-194.86</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>71424.648226</v>
+        <v>71424.648226000005</v>
       </c>
       <c r="BJ22" s="1">
-        <v>19.840180</v>
+        <v>19.84018</v>
       </c>
       <c r="BK22" s="1">
-        <v>1108.190000</v>
+        <v>1108.19</v>
       </c>
       <c r="BL22" s="1">
-        <v>-309.789000</v>
+        <v>-309.78899999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>71435.659411</v>
+        <v>71435.659411000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>19.843239</v>
+        <v>19.843239000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1216.720000</v>
+        <v>1216.72</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-489.500000</v>
+        <v>-489.5</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>71446.512870</v>
+        <v>71446.512870000006</v>
       </c>
       <c r="BT22" s="1">
-        <v>19.846254</v>
+        <v>19.846253999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>1338.200000</v>
+        <v>1338.2</v>
       </c>
       <c r="BV22" s="1">
-        <v>-685.171000</v>
+        <v>-685.17100000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>71457.989334</v>
+        <v>71457.989333999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>19.849441</v>
+        <v>19.849440999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1472.800000</v>
+        <v>1472.8</v>
       </c>
       <c r="CA22" s="1">
-        <v>-893.341000</v>
+        <v>-893.34100000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>71470.961388</v>
+        <v>71470.961387999996</v>
       </c>
       <c r="CD22" s="1">
-        <v>19.853045</v>
+        <v>19.853045000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>1822.930000</v>
+        <v>1822.93</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1384.960000</v>
+        <v>-1384.96</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>71297.393674</v>
+        <v>71297.393674000006</v>
       </c>
       <c r="B23" s="1">
-        <v>19.804832</v>
+        <v>19.804832000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>902.327000</v>
+        <v>902.327</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.632000</v>
+        <v>-194.63200000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>71308.191548</v>
+        <v>71308.191548000003</v>
       </c>
       <c r="G23" s="1">
         <v>19.807831</v>
       </c>
       <c r="H23" s="1">
-        <v>919.356000</v>
+        <v>919.35599999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.654000</v>
+        <v>-165.654</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>71319.043551</v>
+        <v>71319.043550999995</v>
       </c>
       <c r="L23" s="1">
         <v>19.810845</v>
       </c>
       <c r="M23" s="1">
-        <v>942.530000</v>
+        <v>942.53</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.463000</v>
+        <v>-118.46299999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>71329.325121</v>
+        <v>71329.325121000002</v>
       </c>
       <c r="Q23" s="1">
-        <v>19.813701</v>
+        <v>19.813700999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>949.356000</v>
+        <v>949.35599999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.682000</v>
+        <v>-102.682</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>71339.238667</v>
+        <v>71339.238666999998</v>
       </c>
       <c r="V23" s="1">
-        <v>19.816455</v>
+        <v>19.816455000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>956.282000</v>
+        <v>956.28200000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.174000</v>
+        <v>-88.174000000000007</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>71349.482007</v>
+        <v>71349.482006999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>19.819301</v>
+        <v>19.819300999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>963.659000</v>
+        <v>963.65899999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.859900</v>
+        <v>-76.859899999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>71359.601912</v>
+        <v>71359.601911999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>19.822112</v>
+        <v>19.822112000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>968.703000</v>
+        <v>968.70299999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.737300</v>
+        <v>-74.737300000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>71369.861130</v>
+        <v>71369.861130000005</v>
       </c>
       <c r="AK23" s="1">
-        <v>19.824961</v>
+        <v>19.824960999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.109000</v>
+        <v>976.10900000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.394800</v>
+        <v>-79.394800000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>71380.810812</v>
+        <v>71380.810811999996</v>
       </c>
       <c r="AP23" s="1">
-        <v>19.828003</v>
+        <v>19.828002999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.298000</v>
+        <v>984.298</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.800200</v>
+        <v>-90.800200000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>71391.601279</v>
+        <v>71391.601278999995</v>
       </c>
       <c r="AU23" s="1">
-        <v>19.831000</v>
+        <v>19.831</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.194000</v>
+        <v>994.19399999999996</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.228000</v>
+        <v>-108.22799999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>71402.586671</v>
+        <v>71402.586670999997</v>
       </c>
       <c r="AZ23" s="1">
         <v>19.834052</v>
       </c>
       <c r="BA23" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.717000</v>
+        <v>-123.717</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>71413.585954</v>
+        <v>71413.585953999995</v>
       </c>
       <c r="BE23" s="1">
         <v>19.837107</v>
       </c>
       <c r="BF23" s="1">
-        <v>1041.220000</v>
+        <v>1041.22</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.877000</v>
+        <v>-194.87700000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>71425.032131</v>
@@ -6058,135 +6474,135 @@
         <v>19.840287</v>
       </c>
       <c r="BK23" s="1">
-        <v>1108.210000</v>
+        <v>1108.21</v>
       </c>
       <c r="BL23" s="1">
-        <v>-309.785000</v>
+        <v>-309.78500000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>71436.053731</v>
+        <v>71436.053731000007</v>
       </c>
       <c r="BO23" s="1">
-        <v>19.843348</v>
+        <v>19.843347999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-489.501000</v>
+        <v>-489.50099999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>71446.929509</v>
+        <v>71446.929508999994</v>
       </c>
       <c r="BT23" s="1">
-        <v>19.846369</v>
+        <v>19.846368999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1338.020000</v>
+        <v>1338.02</v>
       </c>
       <c r="BV23" s="1">
-        <v>-685.182000</v>
+        <v>-685.18200000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>71458.422805</v>
+        <v>71458.422804999995</v>
       </c>
       <c r="BY23" s="1">
-        <v>19.849562</v>
+        <v>19.849561999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1472.850000</v>
+        <v>1472.85</v>
       </c>
       <c r="CA23" s="1">
-        <v>-893.375000</v>
+        <v>-893.375</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>71471.516197</v>
+        <v>71471.516197000004</v>
       </c>
       <c r="CD23" s="1">
         <v>19.853199</v>
       </c>
       <c r="CE23" s="1">
-        <v>1823.250000</v>
+        <v>1823.25</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1385.770000</v>
+        <v>-1385.77</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>71297.732906</v>
+        <v>71297.732906000005</v>
       </c>
       <c r="B24" s="1">
-        <v>19.804926</v>
+        <v>19.804925999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>902.332000</v>
+        <v>902.33199999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-194.879000</v>
+        <v>-194.87899999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>71308.850731</v>
+        <v>71308.850730999999</v>
       </c>
       <c r="G24" s="1">
         <v>19.808014</v>
       </c>
       <c r="H24" s="1">
-        <v>919.256000</v>
+        <v>919.25599999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-164.842000</v>
+        <v>-164.84200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>71319.422462</v>
+        <v>71319.422462000002</v>
       </c>
       <c r="L24" s="1">
-        <v>19.810951</v>
+        <v>19.810950999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>942.294000</v>
+        <v>942.29399999999998</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.395000</v>
+        <v>-118.395</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>71329.710011</v>
+        <v>71329.710011000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>19.813808</v>
+        <v>19.813808000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>949.309000</v>
+        <v>949.30899999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.697000</v>
+        <v>-102.697</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>71339.583843</v>
@@ -6195,88 +6611,88 @@
         <v>19.816551</v>
       </c>
       <c r="W24" s="1">
-        <v>956.243000</v>
+        <v>956.24300000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.218900</v>
+        <v>-88.218900000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>71349.834661</v>
+        <v>71349.834661000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>19.819399</v>
+        <v>19.819399000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>963.692000</v>
+        <v>963.69200000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.018500</v>
+        <v>-77.018500000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>71359.951591</v>
+        <v>71359.951591000005</v>
       </c>
       <c r="AF24" s="1">
-        <v>19.822209</v>
+        <v>19.822209000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>968.670000</v>
+        <v>968.67</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.793100</v>
+        <v>-74.793099999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>71370.301578</v>
+        <v>71370.301577999999</v>
       </c>
       <c r="AK24" s="1">
         <v>19.825084</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.122000</v>
+        <v>976.12199999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.394100</v>
+        <v>-79.394099999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>71381.246796</v>
+        <v>71381.246796000007</v>
       </c>
       <c r="AP24" s="1">
-        <v>19.828124</v>
+        <v>19.828123999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.302000</v>
+        <v>984.30200000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.779600</v>
+        <v>-90.779600000000002</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>71391.902382</v>
       </c>
       <c r="AU24" s="1">
-        <v>19.831084</v>
+        <v>19.831084000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.205000</v>
+        <v>994.20500000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.228000</v>
+        <v>-108.22799999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>71402.945775</v>
@@ -6285,619 +6701,620 @@
         <v>19.834152</v>
       </c>
       <c r="BA24" s="1">
-        <v>1002.460000</v>
+        <v>1002.46</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.700000</v>
+        <v>-123.7</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>71413.952000</v>
+        <v>71413.952000000005</v>
       </c>
       <c r="BE24" s="1">
-        <v>19.837209</v>
+        <v>19.837209000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1041.210000</v>
+        <v>1041.21</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.887000</v>
+        <v>-194.887</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>71425.421542</v>
+        <v>71425.421541999996</v>
       </c>
       <c r="BJ24" s="1">
-        <v>19.840395</v>
+        <v>19.840395000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1108.200000</v>
+        <v>1108.2</v>
       </c>
       <c r="BL24" s="1">
-        <v>-309.777000</v>
+        <v>-309.77699999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>71436.472850</v>
+        <v>71436.472850000006</v>
       </c>
       <c r="BO24" s="1">
-        <v>19.843465</v>
+        <v>19.843464999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1216.760000</v>
+        <v>1216.76</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-489.483000</v>
+        <v>-489.483</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>71447.765268</v>
+        <v>71447.765268000003</v>
       </c>
       <c r="BT24" s="1">
         <v>19.846601</v>
       </c>
       <c r="BU24" s="1">
-        <v>1337.950000</v>
+        <v>1337.95</v>
       </c>
       <c r="BV24" s="1">
-        <v>-685.140000</v>
+        <v>-685.14</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>71458.842917</v>
+        <v>71458.842917000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>19.849679</v>
+        <v>19.849678999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1472.700000</v>
+        <v>1472.7</v>
       </c>
       <c r="CA24" s="1">
-        <v>-893.293000</v>
+        <v>-893.29300000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>71472.045427</v>
+        <v>71472.045427000005</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.853346</v>
+        <v>19.853345999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1822.880000</v>
+        <v>1822.88</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1384.750000</v>
+        <v>-1384.75</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>71298.390138</v>
+        <v>71298.390138000002</v>
       </c>
       <c r="B25" s="1">
-        <v>19.805108</v>
+        <v>19.805108000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>902.292000</v>
+        <v>902.29200000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-194.590000</v>
+        <v>-194.59</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>71309.226699</v>
+        <v>71309.226699000006</v>
       </c>
       <c r="G25" s="1">
-        <v>19.808119</v>
+        <v>19.808119000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>919.616000</v>
+        <v>919.61599999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.069000</v>
+        <v>-165.06899999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>71319.767183</v>
+        <v>71319.767183000004</v>
       </c>
       <c r="L25" s="1">
-        <v>19.811046</v>
+        <v>19.811046000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>942.353000</v>
+        <v>942.35299999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.464000</v>
+        <v>-118.464</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>71330.055727</v>
+        <v>71330.055726999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.813904</v>
+        <v>19.813904000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>949.268000</v>
+        <v>949.26800000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.746000</v>
+        <v>-102.746</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>71339.925122</v>
+        <v>71339.925122000001</v>
       </c>
       <c r="V25" s="1">
-        <v>19.816646</v>
+        <v>19.816645999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>956.184000</v>
+        <v>956.18399999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.229000</v>
+        <v>-88.228999999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>71350.186821</v>
+        <v>71350.186820999996</v>
       </c>
       <c r="AA25" s="1">
-        <v>19.819496</v>
+        <v>19.819496000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>963.737000</v>
+        <v>963.73699999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.002900</v>
+        <v>-77.002899999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>71360.382119</v>
+        <v>71360.382119000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>19.822328</v>
+        <v>19.822327999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>968.714000</v>
+        <v>968.71400000000006</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.729900</v>
+        <v>-74.729900000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>71370.555530</v>
+        <v>71370.555529999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.825154</v>
+        <v>19.825154000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.133000</v>
+        <v>976.13300000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.401300</v>
+        <v>-79.401300000000006</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>71381.531995</v>
+        <v>71381.531994999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>19.828203</v>
+        <v>19.828202999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.293000</v>
+        <v>984.29300000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.768200</v>
+        <v>-90.768199999999993</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>71392.332877</v>
+        <v>71392.332876999993</v>
       </c>
       <c r="AU25" s="1">
         <v>19.831204</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.205000</v>
+        <v>994.20500000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.208000</v>
+        <v>-108.208</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>71403.304879</v>
+        <v>71403.304879000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>19.834251</v>
+        <v>19.834250999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1002.480000</v>
+        <v>1002.48</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.714000</v>
+        <v>-123.714</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>71414.314608</v>
+        <v>71414.314608000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>19.837310</v>
+        <v>19.837309999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1041.220000</v>
+        <v>1041.22</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.873000</v>
+        <v>-194.87299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>71426.175408</v>
+        <v>71426.175407999996</v>
       </c>
       <c r="BJ25" s="1">
-        <v>19.840604</v>
+        <v>19.840603999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1108.220000</v>
+        <v>1108.22</v>
       </c>
       <c r="BL25" s="1">
-        <v>-309.804000</v>
+        <v>-309.80399999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>71436.872130</v>
+        <v>71436.872130000003</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.843576</v>
+        <v>19.843575999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-489.473000</v>
+        <v>-489.47300000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>71448.193811</v>
+        <v>71448.193811000005</v>
       </c>
       <c r="BT25" s="1">
-        <v>19.846721</v>
+        <v>19.846720999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1337.940000</v>
+        <v>1337.94</v>
       </c>
       <c r="BV25" s="1">
-        <v>-685.205000</v>
+        <v>-685.20500000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>71459.266006</v>
+        <v>71459.266006000005</v>
       </c>
       <c r="BY25" s="1">
-        <v>19.849796</v>
+        <v>19.849796000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1472.790000</v>
+        <v>1472.79</v>
       </c>
       <c r="CA25" s="1">
-        <v>-893.328000</v>
+        <v>-893.32799999999997</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>71472.883707</v>
+        <v>71472.883707000001</v>
       </c>
       <c r="CD25" s="1">
         <v>19.853579</v>
       </c>
       <c r="CE25" s="1">
-        <v>1821.800000</v>
+        <v>1821.8</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1385.430000</v>
+        <v>-1385.43</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>71298.758138</v>
+        <v>71298.758138000005</v>
       </c>
       <c r="B26" s="1">
         <v>19.805211</v>
       </c>
       <c r="C26" s="1">
-        <v>902.350000</v>
+        <v>902.35</v>
       </c>
       <c r="D26" s="1">
-        <v>-194.708000</v>
+        <v>-194.708</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>71309.569434</v>
+        <v>71309.569434000005</v>
       </c>
       <c r="G26" s="1">
         <v>19.808214</v>
       </c>
       <c r="H26" s="1">
-        <v>919.568000</v>
+        <v>919.56799999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-164.991000</v>
+        <v>-164.99100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>71320.115868</v>
+        <v>71320.115867999993</v>
       </c>
       <c r="L26" s="1">
-        <v>19.811143</v>
+        <v>19.811143000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>942.276000</v>
+        <v>942.27599999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.349000</v>
+        <v>-118.349</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>71330.406863</v>
+        <v>71330.406862999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.814002</v>
+        <v>19.814001999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>949.321000</v>
+        <v>949.32100000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.698000</v>
+        <v>-102.69799999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>71340.362098</v>
+        <v>71340.362097999998</v>
       </c>
       <c r="V26" s="1">
-        <v>19.816767</v>
+        <v>19.816766999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>956.131000</v>
+        <v>956.13099999999997</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.125300</v>
+        <v>-88.125299999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>71350.624825</v>
+        <v>71350.624825000006</v>
       </c>
       <c r="AA26" s="1">
-        <v>19.819618</v>
+        <v>19.819617999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>963.736000</v>
+        <v>963.73599999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.988900</v>
+        <v>-76.988900000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>71360.654660</v>
+        <v>71360.65466</v>
       </c>
       <c r="AF26" s="1">
-        <v>19.822404</v>
+        <v>19.822403999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>968.553000</v>
+        <v>968.553</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.723300</v>
+        <v>-74.723299999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>71370.906202</v>
+        <v>71370.906201999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>19.825252</v>
+        <v>19.825251999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.109000</v>
+        <v>976.10900000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.409700</v>
+        <v>-79.409700000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>71381.891136</v>
+        <v>71381.891136000006</v>
       </c>
       <c r="AP26" s="1">
-        <v>19.828303</v>
+        <v>19.828302999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.295000</v>
+        <v>984.29499999999996</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.787300</v>
+        <v>-90.787300000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>71392.693469</v>
+        <v>71392.693469000005</v>
       </c>
       <c r="AU26" s="1">
-        <v>19.831304</v>
+        <v>19.831303999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.201000</v>
+        <v>994.20100000000002</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.212000</v>
+        <v>-108.212</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>71404.023581</v>
+        <v>71404.023581000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>19.834451</v>
+        <v>19.834451000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1002.470000</v>
+        <v>1002.47</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.725000</v>
+        <v>-123.72499999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>71415.032925</v>
+        <v>71415.032925000007</v>
       </c>
       <c r="BE26" s="1">
-        <v>19.837509</v>
+        <v>19.837509000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1041.210000</v>
+        <v>1041.21</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.856000</v>
+        <v>-194.85599999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>71426.572240</v>
+        <v>71426.572239999994</v>
       </c>
       <c r="BJ26" s="1">
-        <v>19.840715</v>
+        <v>19.840714999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1108.220000</v>
+        <v>1108.22</v>
       </c>
       <c r="BL26" s="1">
-        <v>-309.783000</v>
+        <v>-309.78300000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>71437.292248</v>
+        <v>71437.292247999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>19.843692</v>
+        <v>19.843692000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1216.750000</v>
+        <v>1216.75</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-489.519000</v>
+        <v>-489.51900000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>71448.608468</v>
+        <v>71448.608468000006</v>
       </c>
       <c r="BT26" s="1">
         <v>19.846836</v>
       </c>
       <c r="BU26" s="1">
-        <v>1337.810000</v>
+        <v>1337.81</v>
       </c>
       <c r="BV26" s="1">
-        <v>-685.217000</v>
+        <v>-685.21699999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>71460.030835</v>
+        <v>71460.030834999998</v>
       </c>
       <c r="BY26" s="1">
         <v>19.850009</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1472.810000</v>
+        <v>1472.81</v>
       </c>
       <c r="CA26" s="1">
-        <v>-893.376000</v>
+        <v>-893.37599999999998</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>71473.080082</v>
       </c>
       <c r="CD26" s="1">
-        <v>19.853633</v>
+        <v>19.853632999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1822.740000</v>
+        <v>1822.74</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1386.270000</v>
+        <v>-1386.27</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>